--- a/data/trans_orig/P19C06-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P19C06-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BC26EAE-CAB1-4AA3-BA39-11C3978A644D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{39C73AF8-5599-43C9-AF5F-A126B43AAB52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5E1EE354-B972-4765-B765-9FF1714FFDB0}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9139A000-E069-4515-B33C-AB23F1A4DE95}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="402">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías en 2007 (Tasa respuesta: 78,11%)</t>
   </si>
@@ -80,13 +80,13 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>3,56%</t>
+    <t>3,33%</t>
   </si>
   <si>
     <t>0,53%</t>
   </si>
   <si>
-    <t>2,67%</t>
+    <t>2,61%</t>
   </si>
   <si>
     <t>0,76%</t>
@@ -95,1192 +95,1156 @@
     <t>0,23%</t>
   </si>
   <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías en 2012 (Tasa respuesta: 86,83%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
     <t>2,09%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
   </si>
   <si>
     <t>97,91%</t>
   </si>
   <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías en 2015 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías en 2023 (Tasa respuesta: 96,88%)</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
   </si>
   <si>
     <t>3,03%</t>
   </si>
   <si>
-    <t>1,35%</t>
-  </si>
-  <si>
     <t>0,47%</t>
   </si>
   <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
+    <t>2,23%</t>
   </si>
   <si>
     <t>96,97%</t>
   </si>
   <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
+    <t>97,77%</t>
   </si>
   <si>
     <t>99,53%</t>
   </si>
   <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías en 2012 (Tasa respuesta: 86,83%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
   </si>
   <si>
     <t>1,48%</t>
   </si>
   <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
   </si>
   <si>
     <t>98,52%</t>
   </si>
   <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías en 2015 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
+    <t>99,02%</t>
   </si>
   <si>
     <t>98,73%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías en 2023 (Tasa respuesta: 96,88%)</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
   </si>
 </sst>
 </file>
@@ -1692,7 +1656,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D2A62A-06CB-42AB-94BC-B62DDD2F290A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D75BD012-B5F1-4616-85C8-2EF4145D21B9}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2156,13 +2120,13 @@
         <v>3820</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2177,10 +2141,10 @@
         <v>234605</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>22</v>
@@ -2192,10 +2156,10 @@
         <v>286918</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>22</v>
@@ -2207,13 +2171,13 @@
         <v>521523</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2269,7 +2233,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2281,13 +2245,13 @@
         <v>4158</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -2296,13 +2260,13 @@
         <v>5871</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -2311,13 +2275,13 @@
         <v>10029</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2332,13 +2296,13 @@
         <v>263373</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="H14" s="7">
         <v>302</v>
@@ -2347,13 +2311,13 @@
         <v>293663</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="M14" s="7">
         <v>566</v>
@@ -2362,13 +2326,13 @@
         <v>557036</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2424,7 +2388,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2439,10 +2403,10 @@
         <v>12</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -2451,13 +2415,13 @@
         <v>1020</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -2466,13 +2430,13 @@
         <v>1020</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2490,7 +2454,7 @@
         <v>22</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>28</v>
@@ -2502,10 +2466,10 @@
         <v>172886</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>22</v>
@@ -2517,10 +2481,10 @@
         <v>343164</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>22</v>
@@ -2579,7 +2543,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2591,13 +2555,13 @@
         <v>915</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -2612,7 +2576,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -2621,13 +2585,13 @@
         <v>1950</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2642,10 +2606,10 @@
         <v>188355</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>22</v>
@@ -2660,7 +2624,7 @@
         <v>41</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>22</v>
@@ -2672,10 +2636,10 @@
         <v>391808</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>22</v>
@@ -2734,7 +2698,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2746,13 +2710,13 @@
         <v>4213</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H22" s="7">
         <v>10</v>
@@ -2761,13 +2725,13 @@
         <v>10174</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="M22" s="7">
         <v>14</v>
@@ -2776,13 +2740,13 @@
         <v>14387</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>37</v>
+        <v>109</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>113</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2797,13 +2761,13 @@
         <v>460112</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H23" s="7">
         <v>514</v>
@@ -2812,13 +2776,13 @@
         <v>529194</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="M23" s="7">
         <v>964</v>
@@ -2827,13 +2791,13 @@
         <v>989305</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>121</v>
+        <v>46</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>47</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2889,7 +2853,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2901,13 +2865,13 @@
         <v>7620</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>124</v>
+        <v>66</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -2916,13 +2880,13 @@
         <v>3981</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>127</v>
+        <v>53</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="M25" s="7">
         <v>12</v>
@@ -2931,13 +2895,13 @@
         <v>11601</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2952,13 +2916,13 @@
         <v>517932</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>134</v>
+        <v>76</v>
       </c>
       <c r="H26" s="7">
         <v>561</v>
@@ -2967,13 +2931,13 @@
         <v>588431</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>137</v>
+        <v>60</v>
       </c>
       <c r="M26" s="7">
         <v>1075</v>
@@ -2982,13 +2946,13 @@
         <v>1106362</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3056,13 +3020,13 @@
         <v>26937</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="H28" s="7">
         <v>31</v>
@@ -3071,13 +3035,13 @@
         <v>30986</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="M28" s="7">
         <v>58</v>
@@ -3086,13 +3050,13 @@
         <v>57923</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>148</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3107,13 +3071,13 @@
         <v>2427805</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="H29" s="7">
         <v>2648</v>
@@ -3122,13 +3086,13 @@
         <v>2709951</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="M29" s="7">
         <v>5028</v>
@@ -3137,13 +3101,13 @@
         <v>5137756</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>155</v>
+        <v>45</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3199,7 +3163,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -3223,7 +3187,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A69AC790-F297-4737-A314-753C310A0907}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ADE9219-9C15-44F9-B3C9-E6B20319E529}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3240,7 +3204,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3345,39 +3309,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3390,39 +3354,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3435,39 +3399,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3487,10 +3451,10 @@
         <v>49</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>97</v>
+        <v>149</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -3499,13 +3463,13 @@
         <v>2991</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>55</v>
+        <v>151</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -3514,13 +3478,13 @@
         <v>6314</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>65</v>
+        <v>153</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3535,13 +3499,13 @@
         <v>403007</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>102</v>
+        <v>154</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="H8" s="7">
         <v>399</v>
@@ -3550,10 +3514,10 @@
         <v>434832</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>61</v>
+        <v>157</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>27</v>
@@ -3565,13 +3529,13 @@
         <v>837839</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>75</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3639,13 +3603,13 @@
         <v>3872</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -3654,13 +3618,13 @@
         <v>9756</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
@@ -3669,13 +3633,13 @@
         <v>13628</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>175</v>
+        <v>137</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3690,13 +3654,13 @@
         <v>289792</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="H11" s="7">
         <v>297</v>
@@ -3705,13 +3669,13 @@
         <v>318996</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="M11" s="7">
         <v>582</v>
@@ -3720,13 +3684,13 @@
         <v>608788</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>185</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3782,7 +3746,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3794,13 +3758,13 @@
         <v>8076</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>186</v>
+        <v>96</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="H13" s="7">
         <v>12</v>
@@ -3809,13 +3773,13 @@
         <v>12348</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>18</v>
+        <v>177</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>111</v>
+        <v>179</v>
       </c>
       <c r="M13" s="7">
         <v>19</v>
@@ -3824,13 +3788,13 @@
         <v>20424</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3845,13 +3809,13 @@
         <v>555561</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>191</v>
+        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>536</v>
@@ -3860,10 +3824,10 @@
         <v>579706</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>26</v>
+        <v>183</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>118</v>
+        <v>184</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>185</v>
@@ -3875,13 +3839,13 @@
         <v>1135267</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3937,7 +3901,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3949,13 +3913,13 @@
         <v>3529</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -3964,13 +3928,13 @@
         <v>1885</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -3979,13 +3943,13 @@
         <v>5414</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4000,13 +3964,13 @@
         <v>188529</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="H17" s="7">
         <v>186</v>
@@ -4015,10 +3979,10 @@
         <v>192697</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>22</v>
@@ -4030,13 +3994,13 @@
         <v>381226</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4092,7 +4056,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4104,13 +4068,13 @@
         <v>2924</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -4119,13 +4083,13 @@
         <v>3934</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -4134,13 +4098,13 @@
         <v>6858</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4155,13 +4119,13 @@
         <v>247049</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="H20" s="7">
         <v>250</v>
@@ -4170,13 +4134,13 @@
         <v>260896</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="M20" s="7">
         <v>485</v>
@@ -4185,13 +4149,13 @@
         <v>507945</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4247,7 +4211,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4259,13 +4223,13 @@
         <v>2804</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>123</v>
+        <v>218</v>
       </c>
       <c r="H22" s="7">
         <v>9</v>
@@ -4274,13 +4238,13 @@
         <v>9828</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="M22" s="7">
         <v>12</v>
@@ -4289,13 +4253,13 @@
         <v>12632</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>226</v>
+        <v>180</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4310,13 +4274,13 @@
         <v>572287</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>132</v>
+        <v>223</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="H23" s="7">
         <v>563</v>
@@ -4325,13 +4289,13 @@
         <v>616159</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="M23" s="7">
         <v>1097</v>
@@ -4340,13 +4304,13 @@
         <v>1188446</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>231</v>
+        <v>187</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4402,7 +4366,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4414,13 +4378,13 @@
         <v>4477</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -4429,13 +4393,13 @@
         <v>4425</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>236</v>
+        <v>34</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="M25" s="7">
         <v>8</v>
@@ -4444,13 +4408,13 @@
         <v>8902</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>237</v>
+        <v>161</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>238</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4465,13 +4429,13 @@
         <v>629428</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="H26" s="7">
         <v>641</v>
@@ -4480,13 +4444,13 @@
         <v>696825</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>241</v>
+        <v>44</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="M26" s="7">
         <v>1221</v>
@@ -4495,13 +4459,13 @@
         <v>1326253</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>242</v>
+        <v>173</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4569,13 +4533,13 @@
         <v>29005</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>245</v>
+        <v>66</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>148</v>
+        <v>30</v>
       </c>
       <c r="H28" s="7">
         <v>42</v>
@@ -4584,13 +4548,13 @@
         <v>45167</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>110</v>
+        <v>234</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="M28" s="7">
         <v>69</v>
@@ -4599,13 +4563,13 @@
         <v>74172</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>30</v>
+        <v>238</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4620,13 +4584,13 @@
         <v>2885653</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>155</v>
+        <v>39</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>251</v>
+        <v>76</v>
       </c>
       <c r="H29" s="7">
         <v>2872</v>
@@ -4635,13 +4599,13 @@
         <v>3100110</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>119</v>
+        <v>242</v>
       </c>
       <c r="M29" s="7">
         <v>5581</v>
@@ -4650,13 +4614,13 @@
         <v>5985764</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>39</v>
+        <v>244</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4712,7 +4676,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -4736,7 +4700,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5485D9C0-64CF-4BF6-8C4C-86FB979283BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{882C9648-8EB7-4B5E-8E04-529B5B2E1C7B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4753,7 +4717,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4860,13 +4824,13 @@
         <v>6960</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>258</v>
+        <v>82</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -4875,13 +4839,13 @@
         <v>3189</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>197</v>
+        <v>250</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -4890,13 +4854,13 @@
         <v>10150</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>129</v>
+        <v>232</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4911,13 +4875,13 @@
         <v>238258</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>264</v>
+        <v>87</v>
       </c>
       <c r="H5" s="7">
         <v>236</v>
@@ -4926,13 +4890,13 @@
         <v>243145</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>204</v>
+        <v>256</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="M5" s="7">
         <v>451</v>
@@ -4941,13 +4905,13 @@
         <v>481401</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>138</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5018,10 +4982,10 @@
         <v>12</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>130</v>
+        <v>207</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -5030,13 +4994,13 @@
         <v>985</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>268</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -5045,13 +5009,13 @@
         <v>985</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>161</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5069,7 +5033,7 @@
         <v>22</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>28</v>
@@ -5081,10 +5045,10 @@
         <v>392342</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>271</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>22</v>
@@ -5096,10 +5060,10 @@
         <v>755507</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>165</v>
+        <v>201</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>22</v>
@@ -5170,13 +5134,13 @@
         <v>897</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>273</v>
+        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -5185,13 +5149,13 @@
         <v>1070</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>65</v>
+        <v>263</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>228</v>
+        <v>264</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -5200,13 +5164,13 @@
         <v>1967</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>169</v>
+        <v>265</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5218,13 +5182,13 @@
         <v>302</v>
       </c>
       <c r="D11" s="7">
-        <v>289609</v>
+        <v>289610</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>275</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>22</v>
@@ -5236,10 +5200,10 @@
         <v>306694</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>75</v>
+        <v>267</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>22</v>
@@ -5251,10 +5215,10 @@
         <v>596303</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>179</v>
+        <v>269</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>22</v>
@@ -5269,7 +5233,7 @@
         <v>303</v>
       </c>
       <c r="D12" s="7">
-        <v>290506</v>
+        <v>290507</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>28</v>
@@ -5313,7 +5277,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5328,10 +5292,10 @@
         <v>12</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -5340,13 +5304,13 @@
         <v>5363</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>278</v>
+        <v>238</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>130</v>
+        <v>188</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -5355,13 +5319,13 @@
         <v>5363</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>87</v>
+        <v>273</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5379,7 +5343,7 @@
         <v>22</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>28</v>
@@ -5391,13 +5355,13 @@
         <v>343498</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>282</v>
+        <v>244</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>140</v>
+        <v>196</v>
       </c>
       <c r="M14" s="7">
         <v>632</v>
@@ -5406,13 +5370,13 @@
         <v>673545</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>92</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5468,7 +5432,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5483,10 +5447,10 @@
         <v>12</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>142</v>
+        <v>279</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -5495,13 +5459,13 @@
         <v>2545</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>130</v>
+        <v>63</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -5510,13 +5474,13 @@
         <v>2545</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5534,7 +5498,7 @@
         <v>22</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>150</v>
+        <v>284</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>28</v>
@@ -5546,13 +5510,13 @@
         <v>142955</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>140</v>
+        <v>73</v>
       </c>
       <c r="M17" s="7">
         <v>267</v>
@@ -5561,13 +5525,13 @@
         <v>262177</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5623,7 +5587,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5635,13 +5599,13 @@
         <v>4603</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>293</v>
+        <v>264</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>124</v>
+        <v>289</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -5650,13 +5614,13 @@
         <v>1035</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -5665,13 +5629,13 @@
         <v>5638</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5686,13 +5650,13 @@
         <v>229012</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>298</v>
+        <v>268</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>134</v>
+        <v>294</v>
       </c>
       <c r="H20" s="7">
         <v>239</v>
@@ -5701,10 +5665,10 @@
         <v>246102</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>22</v>
@@ -5716,13 +5680,13 @@
         <v>475115</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>102</v>
+        <v>214</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5778,7 +5742,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5790,13 +5754,13 @@
         <v>5000</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>297</v>
+        <v>148</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>303</v>
+        <v>176</v>
       </c>
       <c r="H22" s="7">
         <v>8</v>
@@ -5805,13 +5769,13 @@
         <v>9041</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="M22" s="7">
         <v>12</v>
@@ -5823,10 +5787,10 @@
         <v>30</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>144</v>
+        <v>300</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5841,13 +5805,13 @@
         <v>437307</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>307</v>
+        <v>182</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>302</v>
+        <v>155</v>
       </c>
       <c r="H23" s="7">
         <v>453</v>
@@ -5856,13 +5820,13 @@
         <v>478010</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>275</v>
+        <v>302</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="M23" s="7">
         <v>835</v>
@@ -5874,10 +5838,10 @@
         <v>39</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>153</v>
+        <v>306</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5933,7 +5897,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5945,13 +5909,13 @@
         <v>14142</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>312</v>
+        <v>236</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="H25" s="7">
         <v>14</v>
@@ -5960,13 +5924,13 @@
         <v>15051</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>315</v>
+        <v>64</v>
       </c>
       <c r="M25" s="7">
         <v>27</v>
@@ -5975,13 +5939,13 @@
         <v>29193</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>316</v>
+        <v>30</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5996,28 +5960,28 @@
         <v>626110</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>320</v>
+        <v>243</v>
       </c>
       <c r="H26" s="7">
         <v>621</v>
       </c>
       <c r="I26" s="7">
-        <v>676291</v>
+        <v>676290</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>322</v>
+        <v>72</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>177</v>
+        <v>315</v>
       </c>
       <c r="M26" s="7">
         <v>1224</v>
@@ -6026,13 +5990,13 @@
         <v>1302400</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>324</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6059,7 +6023,7 @@
         <v>635</v>
       </c>
       <c r="I27" s="7">
-        <v>691342</v>
+        <v>691341</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>28</v>
@@ -6100,13 +6064,13 @@
         <v>31603</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>71</v>
+        <v>318</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>128</v>
+        <v>274</v>
       </c>
       <c r="H28" s="7">
         <v>36</v>
@@ -6115,13 +6079,13 @@
         <v>38279</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>249</v>
+        <v>282</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>280</v>
+        <v>320</v>
       </c>
       <c r="M28" s="7">
         <v>64</v>
@@ -6130,13 +6094,13 @@
         <v>69882</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>244</v>
+        <v>190</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6148,16 +6112,16 @@
         <v>2502</v>
       </c>
       <c r="D29" s="7">
-        <v>2632731</v>
+        <v>2632730</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>136</v>
+        <v>277</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>81</v>
+        <v>324</v>
       </c>
       <c r="H29" s="7">
         <v>2691</v>
@@ -6166,28 +6130,28 @@
         <v>2829036</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>284</v>
+        <v>326</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>255</v>
+        <v>287</v>
       </c>
       <c r="M29" s="7">
         <v>5193</v>
       </c>
       <c r="N29" s="7">
-        <v>5461767</v>
+        <v>5461766</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>250</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6199,7 +6163,7 @@
         <v>2530</v>
       </c>
       <c r="D30" s="7">
-        <v>2664334</v>
+        <v>2664333</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>28</v>
@@ -6229,7 +6193,7 @@
         <v>5257</v>
       </c>
       <c r="N30" s="7">
-        <v>5531649</v>
+        <v>5531648</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>28</v>
@@ -6243,7 +6207,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -6267,7 +6231,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51F28D43-A240-457C-B231-E36492011BA0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B50A65-4D1E-4A0D-B40A-7A223B822A92}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6284,7 +6248,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6391,13 +6355,13 @@
         <v>4810</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>335</v>
+        <v>153</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -6406,13 +6370,13 @@
         <v>1522</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>130</v>
+        <v>207</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>30</v>
+        <v>274</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -6421,13 +6385,13 @@
         <v>6332</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>339</v>
+        <v>292</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>340</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6442,13 +6406,13 @@
         <v>250460</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>343</v>
+        <v>159</v>
       </c>
       <c r="H5" s="7">
         <v>528</v>
@@ -6457,13 +6421,13 @@
         <v>267922</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>39</v>
+        <v>277</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="M5" s="7">
         <v>842</v>
@@ -6472,13 +6436,13 @@
         <v>518383</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>346</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>347</v>
+        <v>296</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6546,13 +6510,13 @@
         <v>2419</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>64</v>
+        <v>338</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -6561,13 +6525,13 @@
         <v>4355</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>169</v>
+        <v>265</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -6579,10 +6543,10 @@
         <v>51</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>268</v>
+        <v>340</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6597,10 +6561,10 @@
         <v>505085</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>73</v>
+        <v>341</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>22</v>
@@ -6612,13 +6576,13 @@
         <v>535739</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>47</v>
+        <v>324</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>179</v>
+        <v>269</v>
       </c>
       <c r="M8" s="7">
         <v>1059</v>
@@ -6627,13 +6591,13 @@
         <v>1040823</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>271</v>
+        <v>342</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6701,13 +6665,13 @@
         <v>3819</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>352</v>
+        <v>310</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>237</v>
+        <v>265</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -6716,13 +6680,13 @@
         <v>4957</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>354</v>
+        <v>51</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
@@ -6731,13 +6695,13 @@
         <v>8776</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>225</v>
+        <v>51</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>108</v>
+        <v>347</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6752,13 +6716,13 @@
         <v>303514</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>356</v>
+        <v>315</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="H11" s="7">
         <v>509</v>
@@ -6767,13 +6731,13 @@
         <v>353289</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>359</v>
+        <v>57</v>
       </c>
       <c r="M11" s="7">
         <v>850</v>
@@ -6782,13 +6746,13 @@
         <v>656803</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>115</v>
+        <v>351</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>230</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6844,7 +6808,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -6856,13 +6820,13 @@
         <v>3098</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>360</v>
+        <v>53</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -6871,13 +6835,13 @@
         <v>4768</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>362</v>
+        <v>339</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>363</v>
+        <v>191</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -6886,13 +6850,13 @@
         <v>7867</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>226</v>
+        <v>180</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>34</v>
+        <v>353</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6907,13 +6871,13 @@
         <v>316552</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>366</v>
+        <v>60</v>
       </c>
       <c r="H14" s="7">
         <v>589</v>
@@ -6922,13 +6886,13 @@
         <v>421384</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>367</v>
+        <v>198</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>368</v>
+        <v>343</v>
       </c>
       <c r="M14" s="7">
         <v>874</v>
@@ -6937,13 +6901,13 @@
         <v>737935</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>231</v>
+        <v>187</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>44</v>
+        <v>357</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6999,7 +6963,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7014,10 +6978,10 @@
         <v>12</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -7026,13 +6990,13 @@
         <v>1665</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -7041,13 +7005,13 @@
         <v>1665</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7065,7 +7029,7 @@
         <v>22</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>28</v>
@@ -7077,10 +7041,10 @@
         <v>223260</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>22</v>
@@ -7092,10 +7056,10 @@
         <v>408329</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>22</v>
@@ -7154,7 +7118,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7166,13 +7130,13 @@
         <v>4382</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>98</v>
+        <v>220</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
@@ -7181,13 +7145,13 @@
         <v>3032</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>175</v>
+        <v>366</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>378</v>
+        <v>289</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="M19" s="7">
         <v>11</v>
@@ -7196,13 +7160,13 @@
         <v>7414</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>381</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7217,13 +7181,13 @@
         <v>256395</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>103</v>
+        <v>227</v>
       </c>
       <c r="H20" s="7">
         <v>434</v>
@@ -7232,13 +7196,13 @@
         <v>261176</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>185</v>
+        <v>371</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>385</v>
+        <v>294</v>
       </c>
       <c r="M20" s="7">
         <v>773</v>
@@ -7247,13 +7211,13 @@
         <v>517571</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>387</v>
+        <v>214</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7309,7 +7273,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7321,13 +7285,13 @@
         <v>5223</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="H22" s="7">
         <v>25</v>
@@ -7336,13 +7300,13 @@
         <v>16942</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>258</v>
+        <v>317</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="M22" s="7">
         <v>30</v>
@@ -7351,13 +7315,13 @@
         <v>22166</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7372,13 +7336,13 @@
         <v>602026</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="H23" s="7">
         <v>898</v>
@@ -7387,13 +7351,13 @@
         <v>764767</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>264</v>
+        <v>323</v>
       </c>
       <c r="M23" s="7">
         <v>1474</v>
@@ -7402,10 +7366,10 @@
         <v>1366792</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>20</v>
@@ -7464,7 +7428,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -7476,13 +7440,13 @@
         <v>3541</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>258</v>
+        <v>333</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -7491,13 +7455,13 @@
         <v>3854</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>335</v>
+        <v>384</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>325</v>
+        <v>386</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
@@ -7506,13 +7470,13 @@
         <v>7395</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>339</v>
+        <v>387</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>127</v>
+        <v>53</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7527,13 +7491,13 @@
         <v>830744</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>264</v>
+        <v>337</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="H26" s="7">
         <v>1035</v>
@@ -7542,13 +7506,13 @@
         <v>848215</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>343</v>
+        <v>389</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>329</v>
+        <v>390</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="M26" s="7">
         <v>1776</v>
@@ -7557,13 +7521,13 @@
         <v>1678959</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>347</v>
+        <v>392</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>137</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7631,13 +7595,13 @@
         <v>27293</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>402</v>
+        <v>109</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>227</v>
+        <v>394</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>352</v>
+        <v>386</v>
       </c>
       <c r="H28" s="7">
         <v>58</v>
@@ -7646,13 +7610,13 @@
         <v>41096</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>403</v>
+        <v>109</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="M28" s="7">
         <v>83</v>
@@ -7661,13 +7625,13 @@
         <v>68390</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>406</v>
+        <v>300</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7682,13 +7646,13 @@
         <v>3249845</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>408</v>
+        <v>117</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>356</v>
+        <v>390</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>233</v>
+        <v>398</v>
       </c>
       <c r="H29" s="7">
         <v>5159</v>
@@ -7697,13 +7661,13 @@
         <v>3675752</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>410</v>
+        <v>117</v>
       </c>
       <c r="M29" s="7">
         <v>8387</v>
@@ -7712,13 +7676,13 @@
         <v>6925596</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>413</v>
+        <v>306</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7774,7 +7738,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19C06-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P19C06-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39C73AF8-5599-43C9-AF5F-A126B43AAB52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D06D691-E69C-4DF9-8A3B-E8F1C30AF749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9139A000-E069-4515-B33C-AB23F1A4DE95}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9684B77D-3B57-4DB0-8563-C8E07143BF6E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="412">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías en 2007 (Tasa respuesta: 78,11%)</t>
   </si>
@@ -80,1089 +80,1137 @@
     <t>0,0%</t>
   </si>
   <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías en 2012 (Tasa respuesta: 86,83%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías en 2016 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías en 2023 (Tasa respuesta: 96,88%)</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
     <t>3,33%</t>
   </si>
   <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>98,99%</t>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
   </si>
   <si>
     <t>96,67%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
   </si>
   <si>
     <t>0,19%</t>
   </si>
   <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
   </si>
   <si>
     <t>99,81%</t>
   </si>
   <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías en 2012 (Tasa respuesta: 86,83%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
     <t>97,0%</t>
   </si>
   <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
   </si>
   <si>
     <t>2,65%</t>
   </si>
   <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
   </si>
   <si>
     <t>97,35%</t>
   </si>
   <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías en 2015 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías en 2023 (Tasa respuesta: 96,88%)</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
     <t>1,9%</t>
   </si>
   <si>
@@ -1199,27 +1247,15 @@
     <t>0,15%</t>
   </si>
   <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
     <t>0,88%</t>
   </si>
   <si>
     <t>99,55%</t>
   </si>
   <si>
-    <t>98,72%</t>
-  </si>
-  <si>
     <t>99,85%</t>
   </si>
   <si>
-    <t>99,56%</t>
-  </si>
-  <si>
     <t>99,12%</t>
   </si>
   <si>
@@ -1229,9 +1265,6 @@
     <t>1,48%</t>
   </si>
   <si>
-    <t>0,98%</t>
-  </si>
-  <si>
     <t>1,27%</t>
   </si>
   <si>
@@ -1239,9 +1272,6 @@
   </si>
   <si>
     <t>98,52%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
   </si>
   <si>
     <t>98,73%</t>
@@ -1656,7 +1686,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D75BD012-B5F1-4616-85C8-2EF4145D21B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F7D34E4-3DCB-47B8-AD3F-FD80F2ECA348}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1938,10 +1968,10 @@
         <v>30</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -1950,13 +1980,13 @@
         <v>5951</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="M7" s="7">
         <v>12</v>
@@ -1965,13 +1995,13 @@
         <v>12121</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1986,13 +2016,13 @@
         <v>403586</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="H8" s="7">
         <v>432</v>
@@ -2001,13 +2031,13 @@
         <v>435250</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="M8" s="7">
         <v>810</v>
@@ -2016,13 +2046,13 @@
         <v>838836</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2078,7 +2108,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2090,13 +2120,13 @@
         <v>1932</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -2105,13 +2135,13 @@
         <v>1888</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -2120,13 +2150,13 @@
         <v>3820</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2141,10 +2171,10 @@
         <v>234605</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>22</v>
@@ -2156,10 +2186,10 @@
         <v>286918</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>22</v>
@@ -2171,13 +2201,13 @@
         <v>521523</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2233,7 +2263,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2245,13 +2275,13 @@
         <v>4158</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -2260,13 +2290,13 @@
         <v>5871</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -2275,13 +2305,13 @@
         <v>10029</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2296,13 +2326,13 @@
         <v>263373</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H14" s="7">
         <v>302</v>
@@ -2311,13 +2341,13 @@
         <v>293663</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M14" s="7">
         <v>566</v>
@@ -2326,13 +2356,13 @@
         <v>557036</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2388,7 +2418,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2403,10 +2433,10 @@
         <v>12</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -2415,13 +2445,13 @@
         <v>1020</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -2430,13 +2460,13 @@
         <v>1020</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2454,7 +2484,7 @@
         <v>22</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>28</v>
@@ -2466,10 +2496,10 @@
         <v>172886</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>22</v>
@@ -2481,10 +2511,10 @@
         <v>343164</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>22</v>
@@ -2543,7 +2573,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2555,13 +2585,13 @@
         <v>915</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -2570,13 +2600,13 @@
         <v>1035</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -2585,13 +2615,13 @@
         <v>1950</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2621,10 +2651,10 @@
         <v>203453</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>22</v>
@@ -2636,10 +2666,10 @@
         <v>391808</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>22</v>
@@ -2698,7 +2728,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2710,13 +2740,13 @@
         <v>4213</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H22" s="7">
         <v>10</v>
@@ -2725,13 +2755,13 @@
         <v>10174</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M22" s="7">
         <v>14</v>
@@ -2740,13 +2770,13 @@
         <v>14387</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>38</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2761,13 +2791,13 @@
         <v>460112</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H23" s="7">
         <v>514</v>
@@ -2776,13 +2806,13 @@
         <v>529194</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M23" s="7">
         <v>964</v>
@@ -2791,13 +2821,13 @@
         <v>989305</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>46</v>
+        <v>118</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2853,7 +2883,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2865,13 +2895,13 @@
         <v>7620</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>66</v>
+        <v>122</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -2880,13 +2910,13 @@
         <v>3981</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>53</v>
+        <v>125</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="M25" s="7">
         <v>12</v>
@@ -2895,13 +2925,13 @@
         <v>11601</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2916,13 +2946,13 @@
         <v>517932</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="H26" s="7">
         <v>561</v>
@@ -2931,13 +2961,13 @@
         <v>588431</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>60</v>
+        <v>135</v>
       </c>
       <c r="M26" s="7">
         <v>1075</v>
@@ -2946,13 +2976,13 @@
         <v>1106362</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3020,13 +3050,13 @@
         <v>26937</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>37</v>
+        <v>122</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="H28" s="7">
         <v>31</v>
@@ -3035,13 +3065,13 @@
         <v>30986</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="M28" s="7">
         <v>58</v>
@@ -3050,13 +3080,13 @@
         <v>57923</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>36</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3071,13 +3101,13 @@
         <v>2427805</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>47</v>
+        <v>132</v>
       </c>
       <c r="H29" s="7">
         <v>2648</v>
@@ -3086,13 +3116,13 @@
         <v>2709951</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="M29" s="7">
         <v>5028</v>
@@ -3101,13 +3131,13 @@
         <v>5137756</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3163,7 +3193,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -3187,7 +3217,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ADE9219-9C15-44F9-B3C9-E6B20319E529}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45B70C46-0D2B-4DE1-B58C-5EE1A2CD5C7F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3204,7 +3234,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3309,39 +3339,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3354,39 +3384,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3399,39 +3429,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3448,13 +3478,13 @@
         <v>3323</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -3463,13 +3493,13 @@
         <v>2991</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -3478,13 +3508,13 @@
         <v>6314</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3499,13 +3529,13 @@
         <v>403007</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="H8" s="7">
         <v>399</v>
@@ -3514,13 +3544,13 @@
         <v>434832</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="M8" s="7">
         <v>778</v>
@@ -3529,13 +3559,13 @@
         <v>837839</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3591,7 +3621,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3603,13 +3633,13 @@
         <v>3872</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -3618,13 +3648,13 @@
         <v>9756</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>163</v>
+        <v>82</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
@@ -3633,13 +3663,13 @@
         <v>13628</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3654,13 +3684,13 @@
         <v>289792</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="H11" s="7">
         <v>297</v>
@@ -3669,13 +3699,13 @@
         <v>318996</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>171</v>
+        <v>87</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="M11" s="7">
         <v>582</v>
@@ -3684,13 +3714,13 @@
         <v>608788</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3746,7 +3776,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3758,13 +3788,13 @@
         <v>8076</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>96</v>
+        <v>182</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="H13" s="7">
         <v>12</v>
@@ -3773,13 +3803,13 @@
         <v>12348</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="M13" s="7">
         <v>19</v>
@@ -3788,13 +3818,13 @@
         <v>20424</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3809,13 +3839,13 @@
         <v>555561</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="H14" s="7">
         <v>536</v>
@@ -3824,13 +3854,13 @@
         <v>579706</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="M14" s="7">
         <v>1059</v>
@@ -3839,13 +3869,13 @@
         <v>1135267</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3901,7 +3931,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3913,13 +3943,13 @@
         <v>3529</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>54</v>
+        <v>196</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>188</v>
+        <v>81</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -3928,13 +3958,13 @@
         <v>1885</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>191</v>
+        <v>108</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -3943,13 +3973,13 @@
         <v>5414</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3964,13 +3994,13 @@
         <v>188529</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>59</v>
+        <v>202</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>196</v>
+        <v>86</v>
       </c>
       <c r="H17" s="7">
         <v>186</v>
@@ -3979,10 +4009,10 @@
         <v>192697</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>198</v>
+        <v>116</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>22</v>
@@ -3994,13 +4024,13 @@
         <v>381226</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4056,7 +4086,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4068,13 +4098,13 @@
         <v>2924</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -4083,13 +4113,13 @@
         <v>3934</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>86</v>
+        <v>210</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -4098,13 +4128,13 @@
         <v>6858</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>207</v>
+        <v>128</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4119,13 +4149,13 @@
         <v>247049</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="H20" s="7">
         <v>250</v>
@@ -4134,13 +4164,13 @@
         <v>260896</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>91</v>
+        <v>217</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="M20" s="7">
         <v>485</v>
@@ -4149,13 +4179,13 @@
         <v>507945</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>215</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4211,7 +4241,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4223,13 +4253,13 @@
         <v>2804</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="H22" s="7">
         <v>9</v>
@@ -4238,13 +4268,13 @@
         <v>9828</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>181</v>
+        <v>226</v>
       </c>
       <c r="M22" s="7">
         <v>12</v>
@@ -4253,13 +4283,13 @@
         <v>12632</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>220</v>
+        <v>128</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4274,13 +4304,13 @@
         <v>572287</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="H23" s="7">
         <v>563</v>
@@ -4289,13 +4319,13 @@
         <v>616159</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>186</v>
+        <v>232</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="M23" s="7">
         <v>1097</v>
@@ -4304,13 +4334,13 @@
         <v>1188446</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>187</v>
+        <v>234</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>227</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4366,7 +4396,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4378,13 +4408,13 @@
         <v>4477</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>228</v>
+        <v>122</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>217</v>
+        <v>125</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -4393,13 +4423,13 @@
         <v>4425</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>34</v>
+        <v>237</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>136</v>
+        <v>84</v>
       </c>
       <c r="M25" s="7">
         <v>8</v>
@@ -4408,13 +4438,13 @@
         <v>8902</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>161</v>
+        <v>238</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>164</v>
+        <v>239</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4429,13 +4459,13 @@
         <v>629428</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>230</v>
+        <v>132</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>224</v>
+        <v>135</v>
       </c>
       <c r="H26" s="7">
         <v>641</v>
@@ -4444,13 +4474,13 @@
         <v>696825</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>44</v>
+        <v>241</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>141</v>
+        <v>89</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="M26" s="7">
         <v>1221</v>
@@ -4459,13 +4489,13 @@
         <v>1326253</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>173</v>
+        <v>242</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>170</v>
+        <v>243</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4533,13 +4563,13 @@
         <v>29005</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>66</v>
+        <v>237</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>30</v>
+        <v>245</v>
       </c>
       <c r="H28" s="7">
         <v>42</v>
@@ -4548,13 +4578,13 @@
         <v>45167</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="M28" s="7">
         <v>69</v>
@@ -4563,13 +4593,13 @@
         <v>74172</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>238</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4584,13 +4614,13 @@
         <v>2885653</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>39</v>
+        <v>251</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>76</v>
+        <v>241</v>
       </c>
       <c r="H29" s="7">
         <v>2872</v>
@@ -4599,13 +4629,13 @@
         <v>3100110</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="M29" s="7">
         <v>5581</v>
@@ -4614,13 +4644,13 @@
         <v>5985764</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>244</v>
+        <v>134</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4676,7 +4706,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -4700,7 +4730,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{882C9648-8EB7-4B5E-8E04-529B5B2E1C7B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BEEDDA3-240E-44F9-90DD-25A48E51A18D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4717,7 +4747,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4824,13 +4854,13 @@
         <v>6960</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>82</v>
+        <v>258</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -4839,13 +4869,13 @@
         <v>3189</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -4854,13 +4884,13 @@
         <v>10150</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>232</v>
+        <v>198</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4875,13 +4905,13 @@
         <v>238258</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>87</v>
+        <v>266</v>
       </c>
       <c r="H5" s="7">
         <v>236</v>
@@ -4890,13 +4920,13 @@
         <v>243145</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="M5" s="7">
         <v>451</v>
@@ -4905,13 +4935,13 @@
         <v>481401</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>239</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4982,10 +5012,10 @@
         <v>12</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>207</v>
+        <v>271</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -4994,13 +5024,13 @@
         <v>985</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>141</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -5009,13 +5039,13 @@
         <v>985</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>193</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5033,7 +5063,7 @@
         <v>22</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>215</v>
+        <v>274</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>28</v>
@@ -5045,10 +5075,10 @@
         <v>392342</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>45</v>
+        <v>147</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>22</v>
@@ -5060,10 +5090,10 @@
         <v>755507</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>201</v>
+        <v>55</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>22</v>
@@ -5122,7 +5152,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5134,13 +5164,13 @@
         <v>897</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>103</v>
+        <v>277</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>62</v>
+        <v>140</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -5149,13 +5179,13 @@
         <v>1070</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>263</v>
+        <v>61</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -5164,13 +5194,13 @@
         <v>1967</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>266</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5185,10 +5215,10 @@
         <v>289610</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>112</v>
+        <v>280</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>22</v>
@@ -5200,10 +5230,10 @@
         <v>306694</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>267</v>
+        <v>71</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>22</v>
@@ -5215,10 +5245,10 @@
         <v>596303</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>270</v>
+        <v>230</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>22</v>
@@ -5277,7 +5307,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5292,10 +5322,10 @@
         <v>12</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -5304,13 +5334,13 @@
         <v>5363</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>238</v>
+        <v>284</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>188</v>
+        <v>81</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -5319,13 +5349,13 @@
         <v>5363</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>135</v>
+        <v>286</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>273</v>
+        <v>83</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>274</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5343,7 +5373,7 @@
         <v>22</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>28</v>
@@ -5355,13 +5385,13 @@
         <v>343498</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>244</v>
+        <v>288</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>196</v>
+        <v>86</v>
       </c>
       <c r="M14" s="7">
         <v>632</v>
@@ -5370,13 +5400,13 @@
         <v>673545</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>142</v>
+        <v>290</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>277</v>
+        <v>102</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>278</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5432,7 +5462,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5447,10 +5477,10 @@
         <v>12</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -5459,13 +5489,13 @@
         <v>2545</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>63</v>
+        <v>128</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -5474,13 +5504,13 @@
         <v>2545</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>103</v>
+        <v>277</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5498,7 +5528,7 @@
         <v>22</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>28</v>
@@ -5510,13 +5540,13 @@
         <v>142955</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>73</v>
+        <v>138</v>
       </c>
       <c r="M17" s="7">
         <v>267</v>
@@ -5525,13 +5555,13 @@
         <v>262177</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>112</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5587,7 +5617,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5599,13 +5629,13 @@
         <v>4603</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>264</v>
+        <v>301</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -5614,13 +5644,13 @@
         <v>1035</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -5629,13 +5659,13 @@
         <v>5638</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5650,13 +5680,13 @@
         <v>229012</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>268</v>
+        <v>306</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="H20" s="7">
         <v>239</v>
@@ -5665,10 +5695,10 @@
         <v>246102</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>22</v>
@@ -5680,13 +5710,13 @@
         <v>475115</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5742,7 +5772,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5754,13 +5784,13 @@
         <v>5000</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>148</v>
+        <v>311</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>176</v>
+        <v>312</v>
       </c>
       <c r="H22" s="7">
         <v>8</v>
@@ -5769,13 +5799,13 @@
         <v>9041</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>297</v>
+        <v>236</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>298</v>
+        <v>104</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>299</v>
+        <v>212</v>
       </c>
       <c r="M22" s="7">
         <v>12</v>
@@ -5787,10 +5817,10 @@
         <v>30</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>300</v>
+        <v>67</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5805,13 +5835,13 @@
         <v>437307</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>182</v>
+        <v>314</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>155</v>
+        <v>315</v>
       </c>
       <c r="H23" s="7">
         <v>453</v>
@@ -5820,13 +5850,13 @@
         <v>478010</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>302</v>
+        <v>240</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>303</v>
+        <v>218</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>304</v>
+        <v>112</v>
       </c>
       <c r="M23" s="7">
         <v>835</v>
@@ -5835,13 +5865,13 @@
         <v>915317</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>306</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5897,7 +5927,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5909,13 +5939,13 @@
         <v>14142</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>236</v>
+        <v>318</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="H25" s="7">
         <v>14</v>
@@ -5924,13 +5954,13 @@
         <v>15051</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>64</v>
+        <v>322</v>
       </c>
       <c r="M25" s="7">
         <v>27</v>
@@ -5939,13 +5969,13 @@
         <v>29193</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>30</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>311</v>
+        <v>201</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5960,13 +5990,13 @@
         <v>626110</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>243</v>
+        <v>325</v>
       </c>
       <c r="H26" s="7">
         <v>621</v>
@@ -5975,13 +6005,13 @@
         <v>676290</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>72</v>
+        <v>327</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="M26" s="7">
         <v>1224</v>
@@ -5990,13 +6020,13 @@
         <v>1302400</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>316</v>
+        <v>206</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6064,13 +6094,13 @@
         <v>31603</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>317</v>
+        <v>258</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>318</v>
+        <v>64</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>274</v>
+        <v>329</v>
       </c>
       <c r="H28" s="7">
         <v>36</v>
@@ -6079,13 +6109,13 @@
         <v>38279</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>319</v>
+        <v>224</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>282</v>
+        <v>330</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="M28" s="7">
         <v>64</v>
@@ -6094,13 +6124,13 @@
         <v>69882</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>321</v>
+        <v>239</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>190</v>
+        <v>249</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>322</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6112,16 +6142,16 @@
         <v>2502</v>
       </c>
       <c r="D29" s="7">
-        <v>2632730</v>
+        <v>2632731</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>323</v>
+        <v>266</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>277</v>
+        <v>332</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>324</v>
+        <v>74</v>
       </c>
       <c r="H29" s="7">
         <v>2691</v>
@@ -6130,13 +6160,13 @@
         <v>2829036</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>325</v>
+        <v>230</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>287</v>
+        <v>334</v>
       </c>
       <c r="M29" s="7">
         <v>5193</v>
@@ -6145,13 +6175,13 @@
         <v>5461766</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>327</v>
+        <v>242</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>328</v>
+        <v>146</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>197</v>
+        <v>255</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6163,7 +6193,7 @@
         <v>2530</v>
       </c>
       <c r="D30" s="7">
-        <v>2664333</v>
+        <v>2664334</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>28</v>
@@ -6207,7 +6237,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -6231,7 +6261,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B50A65-4D1E-4A0D-B40A-7A223B822A92}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B2DA3AB-9F56-4617-9218-771E492FD806}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6248,7 +6278,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6355,13 +6385,13 @@
         <v>4810</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>153</v>
+        <v>337</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -6370,13 +6400,13 @@
         <v>1522</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>207</v>
+        <v>271</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>332</v>
+        <v>51</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>274</v>
+        <v>339</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -6385,13 +6415,13 @@
         <v>6332</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>292</v>
+        <v>311</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6406,13 +6436,13 @@
         <v>250460</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>159</v>
+        <v>344</v>
       </c>
       <c r="H5" s="7">
         <v>528</v>
@@ -6421,13 +6451,13 @@
         <v>267922</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>215</v>
+        <v>274</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>277</v>
+        <v>345</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>336</v>
+        <v>58</v>
       </c>
       <c r="M5" s="7">
         <v>842</v>
@@ -6436,13 +6466,13 @@
         <v>518383</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>21</v>
+        <v>347</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>296</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6510,13 +6540,13 @@
         <v>2419</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -6525,13 +6555,13 @@
         <v>4355</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>318</v>
+        <v>349</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -6540,13 +6570,13 @@
         <v>6775</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6564,7 +6594,7 @@
         <v>97</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>22</v>
@@ -6576,13 +6606,13 @@
         <v>535739</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>324</v>
+        <v>353</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="M8" s="7">
         <v>1059</v>
@@ -6591,13 +6621,13 @@
         <v>1040823</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6653,7 +6683,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -6665,13 +6695,13 @@
         <v>3819</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>310</v>
+        <v>356</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>344</v>
+        <v>13</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -6680,13 +6710,13 @@
         <v>4957</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
@@ -6695,13 +6725,13 @@
         <v>8776</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6716,13 +6746,13 @@
         <v>303514</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>315</v>
+        <v>360</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>348</v>
+        <v>21</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="H11" s="7">
         <v>509</v>
@@ -6731,13 +6761,13 @@
         <v>353289</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M11" s="7">
         <v>850</v>
@@ -6746,13 +6776,13 @@
         <v>656803</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6808,7 +6838,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -6820,13 +6850,13 @@
         <v>3098</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>53</v>
+        <v>364</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -6835,13 +6865,13 @@
         <v>4768</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>191</v>
+        <v>366</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -6850,13 +6880,13 @@
         <v>7867</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>353</v>
+        <v>33</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>354</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6871,13 +6901,13 @@
         <v>316552</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>60</v>
+        <v>368</v>
       </c>
       <c r="H14" s="7">
         <v>589</v>
@@ -6886,13 +6916,13 @@
         <v>421384</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>198</v>
+        <v>369</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="M14" s="7">
         <v>874</v>
@@ -6901,13 +6931,13 @@
         <v>737935</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>187</v>
+        <v>234</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>356</v>
+        <v>113</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>357</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6963,7 +6993,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6978,10 +7008,10 @@
         <v>12</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -6990,13 +7020,13 @@
         <v>1665</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -7005,13 +7035,13 @@
         <v>1665</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>292</v>
+        <v>311</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7029,7 +7059,7 @@
         <v>22</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>28</v>
@@ -7041,10 +7071,10 @@
         <v>223260</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>22</v>
@@ -7056,10 +7086,10 @@
         <v>408329</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>296</v>
+        <v>315</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>22</v>
@@ -7118,7 +7148,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7130,13 +7160,13 @@
         <v>4382</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>220</v>
+        <v>377</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
@@ -7145,13 +7175,13 @@
         <v>3032</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="M19" s="7">
         <v>11</v>
@@ -7160,13 +7190,13 @@
         <v>7414</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>66</v>
+        <v>225</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>208</v>
+        <v>382</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7181,13 +7211,13 @@
         <v>256395</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>369</v>
+        <v>383</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>227</v>
+        <v>385</v>
       </c>
       <c r="H20" s="7">
         <v>434</v>
@@ -7196,13 +7226,13 @@
         <v>261176</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="M20" s="7">
         <v>773</v>
@@ -7211,13 +7241,13 @@
         <v>517571</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>214</v>
+        <v>389</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>76</v>
+        <v>233</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7273,7 +7303,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7285,13 +7315,13 @@
         <v>5223</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>161</v>
+        <v>238</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="H22" s="7">
         <v>25</v>
@@ -7300,13 +7330,13 @@
         <v>16942</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>375</v>
+        <v>391</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>317</v>
+        <v>258</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="M22" s="7">
         <v>30</v>
@@ -7315,13 +7345,13 @@
         <v>22166</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>377</v>
+        <v>393</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>378</v>
+        <v>394</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7336,13 +7366,13 @@
         <v>602026</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>170</v>
+        <v>243</v>
       </c>
       <c r="H23" s="7">
         <v>898</v>
@@ -7351,13 +7381,13 @@
         <v>764767</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>323</v>
+        <v>266</v>
       </c>
       <c r="M23" s="7">
         <v>1474</v>
@@ -7366,10 +7396,10 @@
         <v>1366792</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>382</v>
+        <v>398</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>20</v>
@@ -7428,7 +7458,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -7440,13 +7470,13 @@
         <v>3541</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -7455,13 +7485,13 @@
         <v>3854</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>384</v>
+        <v>400</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>385</v>
+        <v>401</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>386</v>
+        <v>321</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
@@ -7470,13 +7500,13 @@
         <v>7395</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>387</v>
+        <v>302</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>53</v>
+        <v>364</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7491,13 +7521,13 @@
         <v>830744</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="H26" s="7">
         <v>1035</v>
@@ -7506,13 +7536,13 @@
         <v>848215</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>389</v>
+        <v>403</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>390</v>
+        <v>328</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="M26" s="7">
         <v>1776</v>
@@ -7521,13 +7551,13 @@
         <v>1678959</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>392</v>
+        <v>308</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>60</v>
+        <v>368</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7595,13 +7625,13 @@
         <v>27293</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>386</v>
+        <v>321</v>
       </c>
       <c r="H28" s="7">
         <v>58</v>
@@ -7610,13 +7640,13 @@
         <v>41096</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="M28" s="7">
         <v>83</v>
@@ -7625,13 +7655,13 @@
         <v>68390</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>396</v>
+        <v>249</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>300</v>
+        <v>142</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7646,13 +7676,13 @@
         <v>3249845</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>390</v>
+        <v>328</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="H29" s="7">
         <v>5159</v>
@@ -7661,13 +7691,13 @@
         <v>3675752</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="M29" s="7">
         <v>8387</v>
@@ -7676,13 +7706,13 @@
         <v>6925596</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>400</v>
+        <v>255</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>306</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7738,7 +7768,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19C06-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P19C06-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D06D691-E69C-4DF9-8A3B-E8F1C30AF749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FF87455-2E58-45A4-B294-B2B7D6401FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9684B77D-3B57-4DB0-8563-C8E07143BF6E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B3908924-85EE-4F18-BBEA-7455FC139141}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="414">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías en 2007 (Tasa respuesta: 78,11%)</t>
   </si>
@@ -71,7 +71,7 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>1,01%</t>
@@ -80,1201 +80,1207 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>3,12%</t>
+    <t>3,56%</t>
   </si>
   <si>
     <t>0,53%</t>
   </si>
   <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
     <t>2,39%</t>
   </si>
   <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
   </si>
   <si>
     <t>97,61%</t>
   </si>
   <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>1,51%</t>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías en 2012 (Tasa respuesta: 86,83%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
   </si>
   <si>
     <t>3,08%</t>
   </si>
   <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
   </si>
   <si>
     <t>96,92%</t>
   </si>
   <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías en 2016 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías en 2023 (Tasa respuesta: 96,88%)</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
   </si>
   <si>
     <t>0,18%</t>
   </si>
   <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
   </si>
   <si>
     <t>99,82%</t>
   </si>
   <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
   </si>
   <si>
     <t>0,83%</t>
   </si>
   <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
   </si>
   <si>
     <t>99,17%</t>
   </si>
   <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
     <t>98,53%</t>
   </si>
   <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
     <t>99,15%</t>
   </si>
   <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías en 2012 (Tasa respuesta: 86,83%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
+    <t>99,02%</t>
   </si>
   <si>
     <t>98,75%</t>
   </si>
   <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías en 2016 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías en 2023 (Tasa respuesta: 96,88%)</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
+    <t>99,23%</t>
   </si>
 </sst>
 </file>
@@ -1686,7 +1692,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F7D34E4-3DCB-47B8-AD3F-FD80F2ECA348}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F16B564-1A26-4F9B-9329-0467D49B752C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1968,10 +1974,10 @@
         <v>30</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -1980,13 +1986,13 @@
         <v>5951</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M7" s="7">
         <v>12</v>
@@ -1995,13 +2001,13 @@
         <v>12121</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2016,13 +2022,13 @@
         <v>403586</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="H8" s="7">
         <v>432</v>
@@ -2031,13 +2037,13 @@
         <v>435250</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M8" s="7">
         <v>810</v>
@@ -2046,13 +2052,13 @@
         <v>838836</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2108,7 +2114,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2120,13 +2126,13 @@
         <v>1932</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -2135,13 +2141,13 @@
         <v>1888</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -2150,13 +2156,13 @@
         <v>3820</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2171,10 +2177,10 @@
         <v>234605</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>22</v>
@@ -2186,10 +2192,10 @@
         <v>286918</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>22</v>
@@ -2201,13 +2207,13 @@
         <v>521523</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2263,7 +2269,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2275,13 +2281,13 @@
         <v>4158</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -2290,13 +2296,13 @@
         <v>5871</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -2305,13 +2311,13 @@
         <v>10029</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2326,13 +2332,13 @@
         <v>263373</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H14" s="7">
         <v>302</v>
@@ -2341,13 +2347,13 @@
         <v>293663</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M14" s="7">
         <v>566</v>
@@ -2356,13 +2362,13 @@
         <v>557036</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2418,7 +2424,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2433,10 +2439,10 @@
         <v>12</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -2445,13 +2451,13 @@
         <v>1020</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -2460,13 +2466,13 @@
         <v>1020</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2484,7 +2490,7 @@
         <v>22</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>28</v>
@@ -2496,10 +2502,10 @@
         <v>172886</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>22</v>
@@ -2511,10 +2517,10 @@
         <v>343164</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>22</v>
@@ -2573,7 +2579,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2585,13 +2591,13 @@
         <v>915</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -2600,13 +2606,13 @@
         <v>1035</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -2615,13 +2621,13 @@
         <v>1950</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2636,10 +2642,10 @@
         <v>188355</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>22</v>
@@ -2651,10 +2657,10 @@
         <v>203453</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>22</v>
@@ -2666,10 +2672,10 @@
         <v>391808</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>22</v>
@@ -2728,7 +2734,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2740,13 +2746,13 @@
         <v>4213</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H22" s="7">
         <v>10</v>
@@ -2755,13 +2761,13 @@
         <v>10174</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M22" s="7">
         <v>14</v>
@@ -2770,13 +2776,13 @@
         <v>14387</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>110</v>
+        <v>37</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2791,13 +2797,13 @@
         <v>460112</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H23" s="7">
         <v>514</v>
@@ -2806,13 +2812,13 @@
         <v>529194</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="M23" s="7">
         <v>964</v>
@@ -2821,13 +2827,13 @@
         <v>989305</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>119</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2883,7 +2889,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2895,13 +2901,13 @@
         <v>7620</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -2910,13 +2916,13 @@
         <v>3981</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M25" s="7">
         <v>12</v>
@@ -2925,13 +2931,13 @@
         <v>11601</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2946,13 +2952,13 @@
         <v>517932</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H26" s="7">
         <v>561</v>
@@ -2961,13 +2967,13 @@
         <v>588431</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M26" s="7">
         <v>1075</v>
@@ -2976,13 +2982,13 @@
         <v>1106362</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3050,13 +3056,13 @@
         <v>26937</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>122</v>
+        <v>53</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H28" s="7">
         <v>31</v>
@@ -3065,13 +3071,13 @@
         <v>30986</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="M28" s="7">
         <v>58</v>
@@ -3080,13 +3086,13 @@
         <v>57923</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3101,13 +3107,13 @@
         <v>2427805</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>132</v>
+        <v>60</v>
       </c>
       <c r="H29" s="7">
         <v>2648</v>
@@ -3116,13 +3122,13 @@
         <v>2709951</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="M29" s="7">
         <v>5028</v>
@@ -3131,13 +3137,13 @@
         <v>5137756</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3193,7 +3199,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -3217,7 +3223,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45B70C46-0D2B-4DE1-B58C-5EE1A2CD5C7F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{193BCA0F-46B2-48AC-85FC-537A69A35EE9}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3234,7 +3240,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3339,39 +3345,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3384,39 +3390,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3429,39 +3435,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3478,13 +3484,13 @@
         <v>3323</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>155</v>
+        <v>97</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -3493,13 +3499,13 @@
         <v>2991</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>157</v>
+        <v>55</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -3508,13 +3514,13 @@
         <v>6314</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>159</v>
+        <v>65</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3529,13 +3535,13 @@
         <v>403007</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>161</v>
+        <v>102</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H8" s="7">
         <v>399</v>
@@ -3544,13 +3550,13 @@
         <v>434832</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>164</v>
+        <v>61</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="M8" s="7">
         <v>778</v>
@@ -3559,13 +3565,13 @@
         <v>837839</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>167</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3621,7 +3627,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3648,13 +3654,13 @@
         <v>9756</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>82</v>
+        <v>171</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
@@ -3663,13 +3669,13 @@
         <v>13628</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3684,13 +3690,13 @@
         <v>289792</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H11" s="7">
         <v>297</v>
@@ -3699,13 +3705,13 @@
         <v>318996</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="M11" s="7">
         <v>582</v>
@@ -3714,13 +3720,13 @@
         <v>608788</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>145</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3776,7 +3782,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3788,13 +3794,13 @@
         <v>8076</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="H13" s="7">
         <v>12</v>
@@ -3803,13 +3809,13 @@
         <v>12348</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>184</v>
+        <v>18</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>186</v>
+        <v>111</v>
       </c>
       <c r="M13" s="7">
         <v>19</v>
@@ -3818,13 +3824,13 @@
         <v>20424</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3839,13 +3845,13 @@
         <v>555561</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H14" s="7">
         <v>536</v>
@@ -3854,13 +3860,13 @@
         <v>579706</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>191</v>
+        <v>26</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>192</v>
+        <v>118</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="M14" s="7">
         <v>1059</v>
@@ -3869,13 +3875,13 @@
         <v>1135267</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3931,7 +3937,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3943,13 +3949,13 @@
         <v>3529</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>196</v>
+        <v>55</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>81</v>
+        <v>194</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -3958,13 +3964,13 @@
         <v>1885</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>108</v>
+        <v>197</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -3973,13 +3979,13 @@
         <v>5414</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3994,13 +4000,13 @@
         <v>188529</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="H17" s="7">
         <v>186</v>
@@ -4009,10 +4015,10 @@
         <v>192697</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>22</v>
@@ -4086,7 +4092,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4104,7 +4110,7 @@
         <v>209</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -4113,7 +4119,7 @@
         <v>3934</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>210</v>
+        <v>88</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>211</v>
@@ -4131,10 +4137,10 @@
         <v>213</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>128</v>
+        <v>214</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4149,13 +4155,13 @@
         <v>247049</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H20" s="7">
         <v>250</v>
@@ -4164,13 +4170,13 @@
         <v>260896</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>217</v>
+        <v>93</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M20" s="7">
         <v>485</v>
@@ -4179,13 +4185,13 @@
         <v>507945</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>138</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4241,7 +4247,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4253,13 +4259,13 @@
         <v>2804</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>224</v>
+        <v>123</v>
       </c>
       <c r="H22" s="7">
         <v>9</v>
@@ -4268,13 +4274,13 @@
         <v>9828</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>225</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>226</v>
+        <v>187</v>
       </c>
       <c r="M22" s="7">
         <v>12</v>
@@ -4283,10 +4289,10 @@
         <v>12632</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>228</v>
@@ -4304,13 +4310,13 @@
         <v>572287</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="H23" s="7">
         <v>563</v>
@@ -4319,13 +4325,13 @@
         <v>616159</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>232</v>
+        <v>190</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M23" s="7">
         <v>1097</v>
@@ -4334,13 +4340,13 @@
         <v>1188446</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>138</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4396,7 +4402,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4408,13 +4414,13 @@
         <v>4477</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>122</v>
+        <v>234</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>125</v>
+        <v>224</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -4423,13 +4429,13 @@
         <v>4425</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="M25" s="7">
         <v>8</v>
@@ -4438,13 +4444,13 @@
         <v>8902</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4459,13 +4465,13 @@
         <v>629428</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>132</v>
+        <v>239</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>240</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>135</v>
+        <v>229</v>
       </c>
       <c r="H26" s="7">
         <v>641</v>
@@ -4477,10 +4483,10 @@
         <v>241</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>89</v>
+        <v>152</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="M26" s="7">
         <v>1221</v>
@@ -4489,7 +4495,7 @@
         <v>1326253</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>242</v>
@@ -4566,10 +4572,10 @@
         <v>244</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>245</v>
+        <v>148</v>
       </c>
       <c r="H28" s="7">
         <v>42</v>
@@ -4581,7 +4587,7 @@
         <v>246</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>227</v>
+        <v>110</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>247</v>
@@ -4599,7 +4605,7 @@
         <v>249</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>126</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4617,10 +4623,10 @@
         <v>250</v>
       </c>
       <c r="F29" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="H29" s="7">
         <v>2872</v>
@@ -4635,7 +4641,7 @@
         <v>253</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>234</v>
+        <v>119</v>
       </c>
       <c r="M29" s="7">
         <v>5581</v>
@@ -4647,7 +4653,7 @@
         <v>254</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>134</v>
+        <v>39</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>255</v>
@@ -4706,7 +4712,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -4730,7 +4736,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BEEDDA3-240E-44F9-90DD-25A48E51A18D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F91CB874-868E-4B09-9948-185BB72B94EF}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4869,13 +4875,13 @@
         <v>3189</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>209</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>261</v>
+        <v>197</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -4884,13 +4890,13 @@
         <v>10150</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>198</v>
+        <v>129</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4905,13 +4911,13 @@
         <v>238258</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="H5" s="7">
         <v>236</v>
@@ -4920,13 +4926,13 @@
         <v>243145</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>268</v>
+        <v>204</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M5" s="7">
         <v>451</v>
@@ -4935,13 +4941,13 @@
         <v>481401</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>204</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5012,10 +5018,10 @@
         <v>12</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>271</v>
+        <v>130</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -5024,13 +5030,13 @@
         <v>985</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>141</v>
+        <v>268</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -5039,13 +5045,13 @@
         <v>985</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>49</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5063,7 +5069,7 @@
         <v>22</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>274</v>
+        <v>140</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>28</v>
@@ -5075,10 +5081,10 @@
         <v>392342</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>147</v>
+        <v>271</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>22</v>
@@ -5090,10 +5096,10 @@
         <v>755507</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>55</v>
+        <v>165</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>22</v>
@@ -5152,7 +5158,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5164,13 +5170,13 @@
         <v>897</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>277</v>
+        <v>107</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>140</v>
+        <v>273</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -5179,13 +5185,13 @@
         <v>1070</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>278</v>
+        <v>228</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -5194,13 +5200,13 @@
         <v>1967</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>279</v>
+        <v>169</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>224</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5212,13 +5218,13 @@
         <v>302</v>
       </c>
       <c r="D11" s="7">
-        <v>289610</v>
+        <v>289609</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>280</v>
+        <v>116</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>146</v>
+        <v>275</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>22</v>
@@ -5230,10 +5236,10 @@
         <v>306694</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>22</v>
@@ -5245,10 +5251,10 @@
         <v>596303</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>282</v>
+        <v>179</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>230</v>
+        <v>276</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>22</v>
@@ -5263,7 +5269,7 @@
         <v>303</v>
       </c>
       <c r="D12" s="7">
-        <v>290507</v>
+        <v>290506</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>28</v>
@@ -5307,7 +5313,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5322,10 +5328,10 @@
         <v>12</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -5334,13 +5340,13 @@
         <v>5363</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>81</v>
+        <v>130</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -5349,13 +5355,13 @@
         <v>5363</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>286</v>
+        <v>144</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>96</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5373,7 +5379,7 @@
         <v>22</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>28</v>
@@ -5385,13 +5391,13 @@
         <v>343498</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>86</v>
+        <v>140</v>
       </c>
       <c r="M14" s="7">
         <v>632</v>
@@ -5400,13 +5406,13 @@
         <v>673545</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>290</v>
+        <v>153</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>102</v>
+        <v>284</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5462,7 +5468,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5477,10 +5483,10 @@
         <v>12</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>291</v>
+        <v>142</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -5489,13 +5495,13 @@
         <v>2545</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -5504,13 +5510,13 @@
         <v>2545</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>277</v>
+        <v>107</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5528,7 +5534,7 @@
         <v>22</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>296</v>
+        <v>150</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>28</v>
@@ -5540,13 +5546,13 @@
         <v>142955</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M17" s="7">
         <v>267</v>
@@ -5555,13 +5561,13 @@
         <v>262177</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>280</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5617,7 +5623,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5629,13 +5635,13 @@
         <v>4603</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>302</v>
+        <v>124</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -5644,13 +5650,13 @@
         <v>1035</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -5662,10 +5668,10 @@
         <v>208</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>226</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5680,13 +5686,13 @@
         <v>229012</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>308</v>
+        <v>134</v>
       </c>
       <c r="H20" s="7">
         <v>239</v>
@@ -5695,10 +5701,10 @@
         <v>246102</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>22</v>
@@ -5710,13 +5716,13 @@
         <v>475115</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>232</v>
+        <v>102</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5772,7 +5778,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5784,13 +5790,13 @@
         <v>5000</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="H22" s="7">
         <v>8</v>
@@ -5799,13 +5805,13 @@
         <v>9041</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>236</v>
+        <v>273</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>104</v>
+        <v>304</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>212</v>
+        <v>305</v>
       </c>
       <c r="M22" s="7">
         <v>12</v>
@@ -5817,10 +5823,10 @@
         <v>30</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>67</v>
+        <v>144</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5835,13 +5841,13 @@
         <v>437307</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="H23" s="7">
         <v>453</v>
@@ -5850,13 +5856,13 @@
         <v>478010</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>240</v>
+        <v>275</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>218</v>
+        <v>308</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>112</v>
+        <v>309</v>
       </c>
       <c r="M23" s="7">
         <v>835</v>
@@ -5865,13 +5871,13 @@
         <v>915317</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>77</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5927,7 +5933,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5939,13 +5945,13 @@
         <v>14142</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="H25" s="7">
         <v>14</v>
@@ -5954,13 +5960,13 @@
         <v>15051</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>321</v>
+        <v>168</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="M25" s="7">
         <v>27</v>
@@ -5969,13 +5975,13 @@
         <v>29193</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>30</v>
+        <v>316</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>201</v>
+        <v>317</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5990,28 +5996,28 @@
         <v>626110</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="H26" s="7">
         <v>621</v>
       </c>
       <c r="I26" s="7">
-        <v>676290</v>
+        <v>676291</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>328</v>
+        <v>177</v>
       </c>
       <c r="M26" s="7">
         <v>1224</v>
@@ -6020,13 +6026,13 @@
         <v>1302400</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>206</v>
+        <v>323</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>38</v>
+        <v>324</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6053,7 +6059,7 @@
         <v>635</v>
       </c>
       <c r="I27" s="7">
-        <v>691341</v>
+        <v>691342</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>28</v>
@@ -6094,13 +6100,13 @@
         <v>31603</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>258</v>
+        <v>325</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>329</v>
+        <v>128</v>
       </c>
       <c r="H28" s="7">
         <v>36</v>
@@ -6109,13 +6115,13 @@
         <v>38279</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>224</v>
+        <v>326</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>330</v>
+        <v>249</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>331</v>
+        <v>280</v>
       </c>
       <c r="M28" s="7">
         <v>64</v>
@@ -6124,13 +6130,13 @@
         <v>69882</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>239</v>
+        <v>327</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>140</v>
+        <v>328</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6145,13 +6151,13 @@
         <v>2632731</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>266</v>
+        <v>329</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>332</v>
+        <v>136</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H29" s="7">
         <v>2691</v>
@@ -6160,28 +6166,28 @@
         <v>2829036</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>230</v>
+        <v>330</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>333</v>
+        <v>284</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>334</v>
+        <v>255</v>
       </c>
       <c r="M29" s="7">
         <v>5193</v>
       </c>
       <c r="N29" s="7">
-        <v>5461766</v>
+        <v>5461767</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>242</v>
+        <v>331</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>146</v>
+        <v>332</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6223,7 +6229,7 @@
         <v>5257</v>
       </c>
       <c r="N30" s="7">
-        <v>5531648</v>
+        <v>5531649</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>28</v>
@@ -6237,7 +6243,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -6261,7 +6267,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B2DA3AB-9F56-4617-9218-771E492FD806}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D469EDB-44B3-4D66-B617-22A919081643}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6278,7 +6284,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6385,13 +6391,13 @@
         <v>4810</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>338</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -6400,13 +6406,13 @@
         <v>1522</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>271</v>
+        <v>130</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>51</v>
+        <v>337</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>339</v>
+        <v>30</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -6415,13 +6421,13 @@
         <v>6332</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6436,13 +6442,13 @@
         <v>250460</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>344</v>
       </c>
       <c r="H5" s="7">
         <v>528</v>
@@ -6451,13 +6457,13 @@
         <v>267922</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>274</v>
+        <v>140</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>345</v>
+        <v>39</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>58</v>
+        <v>344</v>
       </c>
       <c r="M5" s="7">
         <v>842</v>
@@ -6466,13 +6472,13 @@
         <v>518383</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6540,13 +6546,13 @@
         <v>2419</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>348</v>
+        <v>64</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -6555,10 +6561,10 @@
         <v>4355</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>349</v>
+        <v>37</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>279</v>
+        <v>169</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>348</v>
@@ -6570,13 +6576,13 @@
         <v>6775</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>351</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6591,10 +6597,10 @@
         <v>505085</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>352</v>
+        <v>73</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>22</v>
@@ -6606,13 +6612,13 @@
         <v>535739</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>353</v>
+        <v>47</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>282</v>
+        <v>179</v>
       </c>
       <c r="M8" s="7">
         <v>1059</v>
@@ -6621,13 +6627,13 @@
         <v>1040823</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>354</v>
+        <v>271</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6683,7 +6689,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -6695,13 +6701,13 @@
         <v>3819</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>279</v>
+        <v>237</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>13</v>
+        <v>340</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -6710,13 +6716,13 @@
         <v>4957</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>49</v>
+        <v>354</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
@@ -6728,10 +6734,10 @@
         <v>168</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>49</v>
+        <v>225</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>359</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6746,13 +6752,13 @@
         <v>303514</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>21</v>
+        <v>346</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>282</v>
+        <v>243</v>
       </c>
       <c r="H11" s="7">
         <v>509</v>
@@ -6761,13 +6767,13 @@
         <v>353289</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>55</v>
+        <v>359</v>
       </c>
       <c r="M11" s="7">
         <v>850</v>
@@ -6776,13 +6782,13 @@
         <v>656803</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>363</v>
+        <v>115</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>55</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6838,7 +6844,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -6850,13 +6856,13 @@
         <v>3098</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -6865,13 +6871,13 @@
         <v>4768</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -6880,13 +6886,13 @@
         <v>7867</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>106</v>
+        <v>364</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6901,13 +6907,13 @@
         <v>316552</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="H14" s="7">
         <v>589</v>
@@ -6916,13 +6922,13 @@
         <v>421384</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="M14" s="7">
         <v>874</v>
@@ -6931,13 +6937,13 @@
         <v>737935</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>113</v>
+        <v>369</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6993,7 +6999,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7008,10 +7014,10 @@
         <v>12</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -7035,7 +7041,7 @@
         <v>1665</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>12</v>
@@ -7059,7 +7065,7 @@
         <v>22</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>28</v>
@@ -7086,7 +7092,7 @@
         <v>408329</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>375</v>
@@ -7148,7 +7154,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7163,10 +7169,10 @@
         <v>376</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>378</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
@@ -7175,13 +7181,13 @@
         <v>3032</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>380</v>
       </c>
       <c r="M19" s="7">
         <v>11</v>
@@ -7190,13 +7196,13 @@
         <v>7414</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7211,13 +7217,13 @@
         <v>256395</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>384</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>385</v>
+        <v>103</v>
       </c>
       <c r="H20" s="7">
         <v>434</v>
@@ -7226,13 +7232,13 @@
         <v>261176</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>386</v>
+        <v>185</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>309</v>
+        <v>385</v>
       </c>
       <c r="M20" s="7">
         <v>773</v>
@@ -7241,13 +7247,13 @@
         <v>517571</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>233</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7303,7 +7309,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7315,13 +7321,13 @@
         <v>5223</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>238</v>
+        <v>169</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H22" s="7">
         <v>25</v>
@@ -7330,13 +7336,13 @@
         <v>16942</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>258</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="M22" s="7">
         <v>30</v>
@@ -7345,13 +7351,13 @@
         <v>22166</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7366,13 +7372,13 @@
         <v>602026</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>243</v>
+        <v>179</v>
       </c>
       <c r="H23" s="7">
         <v>898</v>
@@ -7381,13 +7387,13 @@
         <v>764767</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="M23" s="7">
         <v>1474</v>
@@ -7396,10 +7402,10 @@
         <v>1366792</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>20</v>
@@ -7458,7 +7464,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -7470,13 +7476,13 @@
         <v>3541</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>340</v>
+        <v>258</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -7485,13 +7491,13 @@
         <v>3854</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>400</v>
+        <v>335</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
@@ -7500,13 +7506,13 @@
         <v>7395</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>364</v>
+        <v>127</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7521,13 +7527,13 @@
         <v>830744</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>346</v>
+        <v>264</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="H26" s="7">
         <v>1035</v>
@@ -7536,13 +7542,13 @@
         <v>848215</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>403</v>
+        <v>343</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="M26" s="7">
         <v>1776</v>
@@ -7551,13 +7557,13 @@
         <v>1678959</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>308</v>
+        <v>347</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>368</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7625,13 +7631,13 @@
         <v>27293</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>67</v>
+        <v>402</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>406</v>
+        <v>227</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>321</v>
+        <v>352</v>
       </c>
       <c r="H28" s="7">
         <v>58</v>
@@ -7640,13 +7646,13 @@
         <v>41096</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>67</v>
+        <v>403</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="M28" s="7">
         <v>83</v>
@@ -7655,13 +7661,13 @@
         <v>68390</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>249</v>
+        <v>405</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>142</v>
+        <v>406</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7676,13 +7682,13 @@
         <v>3249845</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>77</v>
+        <v>408</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>328</v>
+        <v>356</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>409</v>
+        <v>233</v>
       </c>
       <c r="H29" s="7">
         <v>5159</v>
@@ -7691,13 +7697,13 @@
         <v>3675752</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="K29" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="M29" s="7">
         <v>8387</v>
@@ -7706,13 +7712,13 @@
         <v>6925596</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>255</v>
+        <v>411</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>148</v>
+        <v>413</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7768,7 +7774,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19C06-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P19C06-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FF87455-2E58-45A4-B294-B2B7D6401FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B823B42-93A5-4019-9432-FC733AC3B355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B3908924-85EE-4F18-BBEA-7455FC139141}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{284C58BB-6000-419E-ABDB-1CB3FE9B843D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="427">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías en 2007 (Tasa respuesta: 78,11%)</t>
   </si>
@@ -518,7 +518,46 @@
     <t>Población según si el motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías en 2012 (Tasa respuesta: 86,83%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
   </si>
   <si>
     <t>0,24%</t>
@@ -599,138 +638,150 @@
     <t>98,85%</t>
   </si>
   <si>
-    <t>0,62%</t>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
   </si>
   <si>
     <t>3,0%</t>
   </si>
   <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
   </si>
   <si>
     <t>97,0%</t>
   </si>
   <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
     <t>99,3%</t>
   </si>
   <si>
@@ -902,9 +953,6 @@
     <t>4,74%</t>
   </si>
   <si>
-    <t>0,96%</t>
-  </si>
-  <si>
     <t>2,57%</t>
   </si>
   <si>
@@ -914,9 +962,6 @@
     <t>95,26%</t>
   </si>
   <si>
-    <t>99,04%</t>
-  </si>
-  <si>
     <t>97,43%</t>
   </si>
   <si>
@@ -1025,9 +1070,6 @@
     <t>1,26%</t>
   </si>
   <si>
-    <t>1,63%</t>
-  </si>
-  <si>
     <t>98,81%</t>
   </si>
   <si>
@@ -1037,250 +1079,247 @@
     <t>98,74%</t>
   </si>
   <si>
-    <t>98,37%</t>
-  </si>
-  <si>
     <t>Población según si el motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías en 2023 (Tasa respuesta: 96,88%)</t>
   </si>
   <si>
-    <t>1,88%</t>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
   </si>
   <si>
     <t>0,45%</t>
   </si>
   <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
   </si>
   <si>
     <t>99,55%</t>
   </si>
   <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
   </si>
   <si>
     <t>0,28%</t>
   </si>
   <si>
-    <t>98,28%</t>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
   </si>
   <si>
     <t>99,72%</t>
   </si>
   <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
   </si>
   <si>
     <t>1,68%</t>
   </si>
   <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
   </si>
   <si>
     <t>1,41%</t>
   </si>
   <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
   </si>
   <si>
     <t>98,59%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
   </si>
 </sst>
 </file>
@@ -1692,7 +1731,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F16B564-1A26-4F9B-9329-0467D49B752C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7551A47-26F8-4D7E-9439-150F37F26B35}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3223,7 +3262,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{193BCA0F-46B2-48AC-85FC-537A69A35EE9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{244ACC47-C435-4C73-8B00-C236492B693F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3341,43 +3380,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="D4" s="7">
+        <v>4585</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>159</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>159</v>
+        <v>51</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="I4" s="7">
+        <v>9520</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>159</v>
+        <v>109</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>14</v>
+      </c>
+      <c r="N4" s="7">
+        <v>14105</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3386,43 +3431,49 @@
         <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>236</v>
+      </c>
+      <c r="D5" s="7">
+        <v>245975</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>159</v>
+        <v>58</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>213</v>
+      </c>
+      <c r="I5" s="7">
+        <v>239719</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>449</v>
+      </c>
+      <c r="N5" s="7">
+        <v>485695</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3431,43 +3482,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>241</v>
+      </c>
+      <c r="D6" s="7">
+        <v>250560</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>159</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>159</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>159</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>222</v>
+      </c>
+      <c r="I6" s="7">
+        <v>249239</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>159</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>159</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>159</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>463</v>
+      </c>
+      <c r="N6" s="7">
+        <v>499800</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>159</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>159</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>159</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3487,7 +3544,7 @@
         <v>49</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>97</v>
@@ -3499,7 +3556,7 @@
         <v>2991</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>17</v>
@@ -3514,13 +3571,13 @@
         <v>6314</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>65</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3541,7 +3598,7 @@
         <v>102</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="H8" s="7">
         <v>399</v>
@@ -3550,7 +3607,7 @@
         <v>434832</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>61</v>
@@ -3565,10 +3622,10 @@
         <v>837839</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>75</v>
@@ -3639,13 +3696,13 @@
         <v>3872</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -3654,13 +3711,13 @@
         <v>9756</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
@@ -3669,13 +3726,13 @@
         <v>13628</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3690,13 +3747,13 @@
         <v>289792</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="H11" s="7">
         <v>297</v>
@@ -3705,13 +3762,13 @@
         <v>318996</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="M11" s="7">
         <v>582</v>
@@ -3720,13 +3777,13 @@
         <v>608788</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3788,49 +3845,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>8076</v>
+        <v>3491</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="H13" s="7">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="I13" s="7">
-        <v>12348</v>
+        <v>2828</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>111</v>
+        <v>201</v>
       </c>
       <c r="M13" s="7">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="N13" s="7">
-        <v>20424</v>
+        <v>6318</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>70</v>
+        <v>202</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>188</v>
+        <v>107</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3839,49 +3896,49 @@
         <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>523</v>
+        <v>287</v>
       </c>
       <c r="D14" s="7">
-        <v>555561</v>
+        <v>309586</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>120</v>
+        <v>154</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>191</v>
+        <v>22</v>
       </c>
       <c r="H14" s="7">
-        <v>536</v>
+        <v>323</v>
       </c>
       <c r="I14" s="7">
-        <v>579706</v>
+        <v>339987</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>118</v>
+        <v>205</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="M14" s="7">
-        <v>1059</v>
+        <v>610</v>
       </c>
       <c r="N14" s="7">
-        <v>1135267</v>
+        <v>649573</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>79</v>
+        <v>207</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>193</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3890,10 +3947,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>530</v>
+        <v>289</v>
       </c>
       <c r="D15" s="7">
-        <v>563637</v>
+        <v>313077</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>28</v>
@@ -3905,10 +3962,10 @@
         <v>28</v>
       </c>
       <c r="H15" s="7">
-        <v>548</v>
+        <v>326</v>
       </c>
       <c r="I15" s="7">
-        <v>592054</v>
+        <v>342815</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>28</v>
@@ -3920,10 +3977,10 @@
         <v>28</v>
       </c>
       <c r="M15" s="7">
-        <v>1078</v>
+        <v>615</v>
       </c>
       <c r="N15" s="7">
-        <v>1155691</v>
+        <v>655891</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>28</v>
@@ -3952,10 +4009,10 @@
         <v>55</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -3964,13 +4021,13 @@
         <v>1885</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -3979,13 +4036,13 @@
         <v>5414</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4003,10 +4060,10 @@
         <v>61</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="H17" s="7">
         <v>186</v>
@@ -4015,10 +4072,10 @@
         <v>192697</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>22</v>
@@ -4030,13 +4087,13 @@
         <v>381226</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4104,13 +4161,13 @@
         <v>2924</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -4122,10 +4179,10 @@
         <v>88</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -4134,13 +4191,13 @@
         <v>6858</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4155,13 +4212,13 @@
         <v>247049</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="H20" s="7">
         <v>250</v>
@@ -4173,10 +4230,10 @@
         <v>93</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="M20" s="7">
         <v>485</v>
@@ -4185,13 +4242,13 @@
         <v>507945</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4259,10 +4316,10 @@
         <v>2804</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>123</v>
@@ -4277,10 +4334,10 @@
         <v>145</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="M22" s="7">
         <v>12</v>
@@ -4289,13 +4346,13 @@
         <v>12632</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4310,13 +4367,13 @@
         <v>572287</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>132</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="H23" s="7">
         <v>563</v>
@@ -4328,10 +4385,10 @@
         <v>152</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>190</v>
+        <v>246</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="M23" s="7">
         <v>1097</v>
@@ -4340,13 +4397,13 @@
         <v>1188446</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4414,13 +4471,13 @@
         <v>4477</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -4429,10 +4486,10 @@
         <v>4425</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>145</v>
@@ -4447,10 +4504,10 @@
         <v>126</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4465,13 +4522,13 @@
         <v>629428</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="H26" s="7">
         <v>641</v>
@@ -4480,13 +4537,13 @@
         <v>696825</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>152</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="M26" s="7">
         <v>1221</v>
@@ -4498,10 +4555,10 @@
         <v>135</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4569,10 +4626,10 @@
         <v>29005</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>148</v>
@@ -4584,13 +4641,13 @@
         <v>45167</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>110</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="M28" s="7">
         <v>69</v>
@@ -4599,10 +4656,10 @@
         <v>74172</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>30</v>
@@ -4617,16 +4674,16 @@
         <v>2709</v>
       </c>
       <c r="D29" s="7">
-        <v>2885653</v>
+        <v>2885654</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>155</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="H29" s="7">
         <v>2872</v>
@@ -4635,10 +4692,10 @@
         <v>3100110</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>119</v>
@@ -4650,13 +4707,13 @@
         <v>5985764</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>39</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4668,7 +4725,7 @@
         <v>2736</v>
       </c>
       <c r="D30" s="7">
-        <v>2914658</v>
+        <v>2914659</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>28</v>
@@ -4736,7 +4793,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F91CB874-868E-4B09-9948-185BB72B94EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8A15348-B549-4806-895D-790729CE7A94}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4753,7 +4810,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4860,13 +4917,13 @@
         <v>6960</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -4875,13 +4932,13 @@
         <v>3189</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -4890,13 +4947,13 @@
         <v>10150</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>129</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4911,13 +4968,13 @@
         <v>238258</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="H5" s="7">
         <v>236</v>
@@ -4926,13 +4983,13 @@
         <v>243145</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="M5" s="7">
         <v>451</v>
@@ -4941,10 +4998,10 @@
         <v>481401</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>138</v>
@@ -5030,13 +5087,13 @@
         <v>985</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -5045,13 +5102,13 @@
         <v>985</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5081,10 +5138,10 @@
         <v>392342</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>22</v>
@@ -5096,10 +5153,10 @@
         <v>755507</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>22</v>
@@ -5176,7 +5233,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -5191,7 +5248,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -5200,13 +5257,13 @@
         <v>1967</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5218,13 +5275,13 @@
         <v>302</v>
       </c>
       <c r="D11" s="7">
-        <v>289609</v>
+        <v>289610</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>116</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>22</v>
@@ -5239,7 +5296,7 @@
         <v>75</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>22</v>
@@ -5251,10 +5308,10 @@
         <v>596303</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>22</v>
@@ -5269,7 +5326,7 @@
         <v>303</v>
       </c>
       <c r="D12" s="7">
-        <v>290506</v>
+        <v>290507</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>28</v>
@@ -5331,7 +5388,7 @@
         <v>83</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -5340,13 +5397,13 @@
         <v>5363</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>130</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -5361,7 +5418,7 @@
         <v>87</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5379,7 +5436,7 @@
         <v>22</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>28</v>
@@ -5391,10 +5448,10 @@
         <v>343498</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>140</v>
@@ -5409,7 +5466,7 @@
         <v>153</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>92</v>
@@ -5495,13 +5552,13 @@
         <v>2545</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>130</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -5510,13 +5567,13 @@
         <v>2545</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>107</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5546,10 +5603,10 @@
         <v>142955</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>140</v>
@@ -5561,10 +5618,10 @@
         <v>262177</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>291</v>
+        <v>207</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>116</v>
@@ -5635,13 +5692,13 @@
         <v>4603</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>124</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -5650,13 +5707,13 @@
         <v>1035</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -5665,10 +5722,10 @@
         <v>5638</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>97</v>
@@ -5686,10 +5743,10 @@
         <v>229012</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>134</v>
@@ -5701,10 +5758,10 @@
         <v>246102</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>22</v>
@@ -5716,13 +5773,13 @@
         <v>475115</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>102</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5793,10 +5850,10 @@
         <v>143</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="H22" s="7">
         <v>8</v>
@@ -5805,13 +5862,13 @@
         <v>9041</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="M22" s="7">
         <v>12</v>
@@ -5826,7 +5883,7 @@
         <v>144</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5844,10 +5901,10 @@
         <v>151</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="H23" s="7">
         <v>453</v>
@@ -5856,13 +5913,13 @@
         <v>478010</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="M23" s="7">
         <v>835</v>
@@ -5874,7 +5931,7 @@
         <v>39</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>153</v>
@@ -5945,13 +6002,13 @@
         <v>14142</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="H25" s="7">
         <v>14</v>
@@ -5960,13 +6017,13 @@
         <v>15051</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="M25" s="7">
         <v>27</v>
@@ -5975,13 +6032,13 @@
         <v>29193</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5996,28 +6053,28 @@
         <v>626110</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="H26" s="7">
         <v>621</v>
       </c>
       <c r="I26" s="7">
-        <v>676291</v>
+        <v>676290</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="M26" s="7">
         <v>1224</v>
@@ -6026,13 +6083,13 @@
         <v>1302400</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>324</v>
+        <v>339</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6059,7 +6116,7 @@
         <v>635</v>
       </c>
       <c r="I27" s="7">
-        <v>691342</v>
+        <v>691341</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>28</v>
@@ -6100,7 +6157,7 @@
         <v>31603</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>71</v>
@@ -6115,13 +6172,13 @@
         <v>38279</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="M28" s="7">
         <v>64</v>
@@ -6130,13 +6187,13 @@
         <v>69882</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>328</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6148,10 +6205,10 @@
         <v>2502</v>
       </c>
       <c r="D29" s="7">
-        <v>2632731</v>
+        <v>2632730</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>136</v>
@@ -6166,28 +6223,28 @@
         <v>2829036</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="M29" s="7">
         <v>5193</v>
       </c>
       <c r="N29" s="7">
-        <v>5461767</v>
+        <v>5461766</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>332</v>
+        <v>172</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6199,7 +6256,7 @@
         <v>2530</v>
       </c>
       <c r="D30" s="7">
-        <v>2664334</v>
+        <v>2664333</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>28</v>
@@ -6229,7 +6286,7 @@
         <v>5257</v>
       </c>
       <c r="N30" s="7">
-        <v>5531649</v>
+        <v>5531648</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>28</v>
@@ -6267,7 +6324,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D469EDB-44B3-4D66-B617-22A919081643}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EAF87AE-CF3A-4FF1-A2AE-CCCC99084D19}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6284,7 +6341,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6388,46 +6445,46 @@
         <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>4810</v>
+        <v>6568</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>1522</v>
+        <v>1579</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>130</v>
+        <v>350</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>337</v>
+        <v>127</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>30</v>
+        <v>351</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
       </c>
       <c r="N4" s="7">
-        <v>6332</v>
+        <v>8147</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6439,46 +6496,46 @@
         <v>314</v>
       </c>
       <c r="D5" s="7">
-        <v>250460</v>
+        <v>298862</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="H5" s="7">
         <v>528</v>
       </c>
       <c r="I5" s="7">
-        <v>267922</v>
+        <v>286028</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>140</v>
+        <v>358</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>39</v>
+        <v>359</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>344</v>
+        <v>137</v>
       </c>
       <c r="M5" s="7">
         <v>842</v>
       </c>
       <c r="N5" s="7">
-        <v>518383</v>
+        <v>584890</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6490,7 +6547,7 @@
         <v>317</v>
       </c>
       <c r="D6" s="7">
-        <v>255270</v>
+        <v>305430</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>28</v>
@@ -6505,7 +6562,7 @@
         <v>531</v>
       </c>
       <c r="I6" s="7">
-        <v>269444</v>
+        <v>287607</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>28</v>
@@ -6520,7 +6577,7 @@
         <v>848</v>
       </c>
       <c r="N6" s="7">
-        <v>524715</v>
+        <v>593037</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>28</v>
@@ -6543,46 +6600,46 @@
         <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>2419</v>
+        <v>2343</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>95</v>
+        <v>363</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>64</v>
+        <v>364</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
       </c>
       <c r="I7" s="7">
-        <v>4355</v>
+        <v>4135</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>169</v>
+        <v>365</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>348</v>
+        <v>366</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
       </c>
       <c r="N7" s="7">
-        <v>6775</v>
+        <v>6477</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>51</v>
+        <v>367</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>349</v>
+        <v>368</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>268</v>
+        <v>369</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6594,13 +6651,13 @@
         <v>369</v>
       </c>
       <c r="D8" s="7">
-        <v>505085</v>
+        <v>504641</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>100</v>
+        <v>370</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>73</v>
+        <v>371</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>22</v>
@@ -6609,31 +6666,31 @@
         <v>690</v>
       </c>
       <c r="I8" s="7">
-        <v>535739</v>
+        <v>497413</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>350</v>
+        <v>372</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>179</v>
+        <v>373</v>
       </c>
       <c r="M8" s="7">
         <v>1059</v>
       </c>
       <c r="N8" s="7">
-        <v>1040823</v>
+        <v>1002055</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>58</v>
+        <v>374</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>271</v>
+        <v>375</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>351</v>
+        <v>376</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6645,7 +6702,7 @@
         <v>371</v>
       </c>
       <c r="D9" s="7">
-        <v>507504</v>
+        <v>506984</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>28</v>
@@ -6660,7 +6717,7 @@
         <v>696</v>
       </c>
       <c r="I9" s="7">
-        <v>540094</v>
+        <v>501548</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>28</v>
@@ -6675,7 +6732,7 @@
         <v>1067</v>
       </c>
       <c r="N9" s="7">
-        <v>1047598</v>
+        <v>1008532</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>28</v>
@@ -6698,46 +6755,46 @@
         <v>4</v>
       </c>
       <c r="D10" s="7">
-        <v>3819</v>
+        <v>3751</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>352</v>
+        <v>377</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>340</v>
+        <v>378</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
       </c>
       <c r="I10" s="7">
-        <v>4957</v>
+        <v>4583</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>354</v>
+        <v>209</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>355</v>
+        <v>97</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
       </c>
       <c r="N10" s="7">
-        <v>8776</v>
+        <v>8334</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>168</v>
+        <v>369</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>108</v>
+        <v>379</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6749,46 +6806,46 @@
         <v>341</v>
       </c>
       <c r="D11" s="7">
-        <v>303514</v>
+        <v>297441</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>356</v>
+        <v>380</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>346</v>
+        <v>381</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="H11" s="7">
         <v>509</v>
       </c>
       <c r="I11" s="7">
-        <v>353289</v>
+        <v>330692</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>358</v>
+        <v>102</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>359</v>
+        <v>217</v>
       </c>
       <c r="M11" s="7">
         <v>850</v>
       </c>
       <c r="N11" s="7">
-        <v>656803</v>
+        <v>628133</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>177</v>
+        <v>375</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>115</v>
+        <v>382</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6800,7 +6857,7 @@
         <v>345</v>
       </c>
       <c r="D12" s="7">
-        <v>307333</v>
+        <v>301192</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>28</v>
@@ -6815,7 +6872,7 @@
         <v>517</v>
       </c>
       <c r="I12" s="7">
-        <v>358246</v>
+        <v>335275</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>28</v>
@@ -6830,7 +6887,7 @@
         <v>862</v>
       </c>
       <c r="N12" s="7">
-        <v>665579</v>
+        <v>636467</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>28</v>
@@ -6853,46 +6910,46 @@
         <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>3098</v>
+        <v>2742</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>196</v>
+        <v>383</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>360</v>
+        <v>54</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>361</v>
+        <v>384</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
       </c>
       <c r="I13" s="7">
-        <v>4768</v>
+        <v>4096</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>84</v>
+        <v>385</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>362</v>
+        <v>173</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>363</v>
+        <v>386</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
       </c>
       <c r="N13" s="7">
-        <v>7867</v>
+        <v>6838</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="P13" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>364</v>
+        <v>387</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6904,46 +6961,46 @@
         <v>285</v>
       </c>
       <c r="D14" s="7">
-        <v>316552</v>
+        <v>307378</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>203</v>
+        <v>388</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>365</v>
+        <v>389</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>366</v>
+        <v>62</v>
       </c>
       <c r="H14" s="7">
         <v>589</v>
       </c>
       <c r="I14" s="7">
-        <v>421384</v>
+        <v>469369</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>89</v>
+        <v>390</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>367</v>
+        <v>391</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>368</v>
+        <v>177</v>
       </c>
       <c r="M14" s="7">
         <v>874</v>
       </c>
       <c r="N14" s="7">
-        <v>737935</v>
+        <v>776747</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>231</v>
+        <v>390</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>369</v>
+        <v>392</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>44</v>
+        <v>235</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6955,7 +7012,7 @@
         <v>288</v>
       </c>
       <c r="D15" s="7">
-        <v>319650</v>
+        <v>310120</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>28</v>
@@ -6970,7 +7027,7 @@
         <v>594</v>
       </c>
       <c r="I15" s="7">
-        <v>426152</v>
+        <v>473465</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>28</v>
@@ -6985,7 +7042,7 @@
         <v>882</v>
       </c>
       <c r="N15" s="7">
-        <v>745802</v>
+        <v>783585</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>28</v>
@@ -7023,31 +7080,31 @@
         <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>1665</v>
+        <v>1566</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>370</v>
+        <v>393</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>371</v>
+        <v>394</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>1665</v>
+        <v>1566</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>372</v>
+        <v>395</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7059,7 +7116,7 @@
         <v>263</v>
       </c>
       <c r="D17" s="7">
-        <v>185069</v>
+        <v>168429</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>22</v>
@@ -7074,13 +7131,13 @@
         <v>476</v>
       </c>
       <c r="I17" s="7">
-        <v>223260</v>
+        <v>200726</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>373</v>
+        <v>396</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>374</v>
+        <v>397</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>22</v>
@@ -7089,13 +7146,13 @@
         <v>739</v>
       </c>
       <c r="N17" s="7">
-        <v>408329</v>
+        <v>369155</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>375</v>
+        <v>398</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>22</v>
@@ -7110,7 +7167,7 @@
         <v>263</v>
       </c>
       <c r="D18" s="7">
-        <v>185069</v>
+        <v>168429</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>28</v>
@@ -7125,7 +7182,7 @@
         <v>477</v>
       </c>
       <c r="I18" s="7">
-        <v>224925</v>
+        <v>202292</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>28</v>
@@ -7140,7 +7197,7 @@
         <v>740</v>
       </c>
       <c r="N18" s="7">
-        <v>409994</v>
+        <v>370721</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>28</v>
@@ -7163,46 +7220,46 @@
         <v>5</v>
       </c>
       <c r="D19" s="7">
-        <v>4382</v>
+        <v>4263</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>376</v>
+        <v>399</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>377</v>
+        <v>161</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
       </c>
       <c r="I19" s="7">
-        <v>3032</v>
+        <v>2856</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>175</v>
+        <v>400</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>378</v>
+        <v>312</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
       <c r="M19" s="7">
         <v>11</v>
       </c>
       <c r="N19" s="7">
-        <v>7414</v>
+        <v>7120</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>380</v>
+        <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>53</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>381</v>
+        <v>321</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7214,43 +7271,43 @@
         <v>339</v>
       </c>
       <c r="D20" s="7">
-        <v>256395</v>
+        <v>249469</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>382</v>
+        <v>402</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>383</v>
+        <v>168</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="H20" s="7">
         <v>434</v>
       </c>
       <c r="I20" s="7">
-        <v>261176</v>
+        <v>243494</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>185</v>
+        <v>403</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>384</v>
+        <v>404</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>385</v>
+        <v>317</v>
       </c>
       <c r="M20" s="7">
         <v>773</v>
       </c>
       <c r="N20" s="7">
-        <v>517571</v>
+        <v>492962</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>386</v>
+        <v>45</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>387</v>
+        <v>325</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>60</v>
@@ -7265,7 +7322,7 @@
         <v>344</v>
       </c>
       <c r="D21" s="7">
-        <v>260777</v>
+        <v>253732</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>28</v>
@@ -7280,7 +7337,7 @@
         <v>440</v>
       </c>
       <c r="I21" s="7">
-        <v>264208</v>
+        <v>246350</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>28</v>
@@ -7295,7 +7352,7 @@
         <v>784</v>
       </c>
       <c r="N21" s="7">
-        <v>524985</v>
+        <v>500082</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>28</v>
@@ -7318,46 +7375,46 @@
         <v>5</v>
       </c>
       <c r="D22" s="7">
-        <v>5223</v>
+        <v>5090</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>147</v>
+        <v>405</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>169</v>
+        <v>254</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>388</v>
+        <v>406</v>
       </c>
       <c r="H22" s="7">
         <v>25</v>
       </c>
       <c r="I22" s="7">
-        <v>16942</v>
+        <v>15806</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>258</v>
+        <v>405</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>390</v>
+        <v>407</v>
       </c>
       <c r="M22" s="7">
         <v>30</v>
       </c>
       <c r="N22" s="7">
-        <v>22166</v>
+        <v>20895</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>391</v>
+        <v>148</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>392</v>
+        <v>408</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7369,46 +7426,46 @@
         <v>576</v>
       </c>
       <c r="D23" s="7">
-        <v>602026</v>
+        <v>594605</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>156</v>
+        <v>409</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>393</v>
+        <v>410</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>179</v>
+        <v>260</v>
       </c>
       <c r="H23" s="7">
         <v>898</v>
       </c>
       <c r="I23" s="7">
-        <v>764767</v>
+        <v>812559</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>395</v>
+        <v>411</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>264</v>
+        <v>409</v>
       </c>
       <c r="M23" s="7">
         <v>1474</v>
       </c>
       <c r="N23" s="7">
-        <v>1366792</v>
+        <v>1407165</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>396</v>
+        <v>155</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7420,7 +7477,7 @@
         <v>581</v>
       </c>
       <c r="D24" s="7">
-        <v>607249</v>
+        <v>599695</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>28</v>
@@ -7435,7 +7492,7 @@
         <v>923</v>
       </c>
       <c r="I24" s="7">
-        <v>781709</v>
+        <v>828365</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>28</v>
@@ -7450,7 +7507,7 @@
         <v>1504</v>
       </c>
       <c r="N24" s="7">
-        <v>1388958</v>
+        <v>1428060</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>28</v>
@@ -7473,46 +7530,46 @@
         <v>3</v>
       </c>
       <c r="D25" s="7">
-        <v>3541</v>
+        <v>3069</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>295</v>
+        <v>365</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>269</v>
+        <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>258</v>
+        <v>413</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
       </c>
       <c r="I25" s="7">
-        <v>3854</v>
+        <v>3153</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>335</v>
+        <v>353</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>398</v>
+        <v>414</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>325</v>
+        <v>223</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
       </c>
       <c r="N25" s="7">
-        <v>7395</v>
+        <v>6222</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>339</v>
+        <v>415</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>127</v>
+        <v>286</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>399</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7524,46 +7581,46 @@
         <v>741</v>
       </c>
       <c r="D26" s="7">
-        <v>830744</v>
+        <v>905570</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>300</v>
+        <v>373</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>264</v>
+        <v>416</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="H26" s="7">
         <v>1035</v>
       </c>
       <c r="I26" s="7">
-        <v>848215</v>
+        <v>700771</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>329</v>
+        <v>231</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="M26" s="7">
         <v>1776</v>
       </c>
       <c r="N26" s="7">
-        <v>1678959</v>
+        <v>1606341</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>347</v>
+        <v>418</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>401</v>
+        <v>47</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>137</v>
+        <v>289</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7575,7 +7632,7 @@
         <v>744</v>
       </c>
       <c r="D27" s="7">
-        <v>834285</v>
+        <v>908639</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>28</v>
@@ -7590,7 +7647,7 @@
         <v>1039</v>
       </c>
       <c r="I27" s="7">
-        <v>852069</v>
+        <v>703924</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>28</v>
@@ -7605,7 +7662,7 @@
         <v>1783</v>
       </c>
       <c r="N27" s="7">
-        <v>1686354</v>
+        <v>1612563</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>28</v>
@@ -7628,46 +7685,46 @@
         <v>25</v>
       </c>
       <c r="D28" s="7">
-        <v>27293</v>
+        <v>27826</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>402</v>
+        <v>419</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>227</v>
+        <v>98</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>352</v>
+        <v>420</v>
       </c>
       <c r="H28" s="7">
         <v>58</v>
       </c>
       <c r="I28" s="7">
-        <v>41096</v>
+        <v>37773</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>146</v>
+        <v>421</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>403</v>
+        <v>71</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>404</v>
+        <v>422</v>
       </c>
       <c r="M28" s="7">
         <v>83</v>
       </c>
       <c r="N28" s="7">
-        <v>68390</v>
+        <v>65599</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>405</v>
+        <v>266</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>406</v>
+        <v>53</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>407</v>
+        <v>342</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7679,46 +7736,46 @@
         <v>3228</v>
       </c>
       <c r="D29" s="7">
-        <v>3249845</v>
+        <v>3326395</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>356</v>
+        <v>424</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>233</v>
+        <v>103</v>
       </c>
       <c r="H29" s="7">
         <v>5159</v>
       </c>
       <c r="I29" s="7">
-        <v>3675752</v>
+        <v>3541054</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>154</v>
+        <v>425</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>409</v>
+        <v>426</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>410</v>
+        <v>81</v>
       </c>
       <c r="M29" s="7">
         <v>8387</v>
       </c>
       <c r="N29" s="7">
-        <v>6925596</v>
+        <v>6867449</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>411</v>
+        <v>272</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>412</v>
+        <v>345</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>413</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7730,7 +7787,7 @@
         <v>3253</v>
       </c>
       <c r="D30" s="7">
-        <v>3277138</v>
+        <v>3354221</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>28</v>
@@ -7745,7 +7802,7 @@
         <v>5217</v>
       </c>
       <c r="I30" s="7">
-        <v>3716848</v>
+        <v>3578827</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>28</v>
@@ -7760,7 +7817,7 @@
         <v>8470</v>
       </c>
       <c r="N30" s="7">
-        <v>6993986</v>
+        <v>6933048</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>28</v>
